--- a/integration_EAI/Assets/loc_All objects_en.xlsx
+++ b/integration_EAI/Assets/loc_All objects_en.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="311">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
   <x:si>
     <x:t>LocaID</x:t>
   </x:si>
@@ -28,6 +28,18 @@
     <x:t>Is final?</x:t>
   </x:si>
   <x:si>
+    <x:t>FFr_745F99A6.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Untitled flow fragment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Untitled flow fragment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FFr_745F99A6.Text</x:t>
+  </x:si>
+  <x:si>
     <x:t>Dlg_BE7496F0.DisplayName</x:t>
   </x:si>
   <x:si>
@@ -70,831 +82,1240 @@
     <x:t>Dlg_E16BA149.Text</x:t>
   </x:si>
   <x:si>
-    <x:t>DFr_4B0871F0.PreviewText</x:t>
+    <x:t>Answer_0_1_2.PreviewText</x:t>
   </x:si>
   <x:si>
     <x:t>Bonjour</x:t>
   </x:si>
   <x:si>
-    <x:t>Flow/Profil 1/profil 1: "Bonjour !"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4B0871F0.StageDirections</x:t>
+    <x:t>Flow/Profil 1/profil 1 normal: "Bonjour !"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_0_1_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_0_1_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bonjour !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bonjour, Madame M assistante sociale.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "Bonjour, Madame M, entrez."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bonjour, Madame M, entrez.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Bonjour </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "Bonjour"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allez-y entrez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "Allez-y entrez (polie et courtoise)"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Allez-y entrez (polie et courtoise)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">Madame B, allez-y entrez </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "Madame B, allez-y entrez  (polie et..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madame B, allez-y entrez  (polie et courtoise)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Madame B, entrez !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "Madame B, entrez !"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>abrupte</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/profil 1 normal: "entre dans la piece"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>entre dans la piece</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nicolas X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/profil 1 normal: "(entre dans la piece )Nicolas X"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>(entre dans la piece )Nicolas X</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/gêne: "entre dans la piece"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Alors je vous écoute"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: ""Alors je vous écoute" (regarde la..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>"Alors je vous écoute" (regarde la personne dans les yeux</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alors pourquoi ce rendez-vous ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/Assistante sociale: "alors pourquoi ce rendez-vous ? (re..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_2_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>alors pourquoi ce rendez-vous ? (regarde son dossier)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hmmmm...</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1/gêne: "Heummm…  Je viens pour… Je viens pa..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Heummm…  Je viens pour… Je viens parce que j'ai besoins de soins.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699733.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D’accord. C’est quoi que vous consommez ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. C’est quoi que vous conso..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699733.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">regarde la personne en face </x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699733.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699741.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ca dépend ce que j’ai… et du pognon…</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/gêne: "Ca dépend ce que j’ai… et du pognon..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699741.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699741.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699750.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vous vous rendez compte de la gravité !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Vous vous rendez compte de la gravi..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699750.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699750.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699756.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>accompagnement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Et vous avez été déjà acc..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699756.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102699756.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D’accord. Et vous avez été déjà accompagné dans ce cadre-là par une association ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oui !</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/colère: "oui !"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oui, j’ai déjà eu des traitements.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "Oui, j’ai déjà eu des traitements."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_2_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "C’est une association qui accompagn..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>C’est une association qui accompagne les personnes qui  sont en situation de consommation de produits et qui souhaite en discuter avec un professionnel pour faire le point sur leur consommation. Puis après, des personnes aussi qui sont demandent de soutien pour arrêter ou pour en tous cas diminuer leur consommation car des fois c’est difficile d’être dans cette situation-là. Donc ces personnes-là peuvent vous soutenir. Il y a des travailleurs sociaux, une psychologue aussi.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Moi je peux vous aider, par exemple..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Moi je peux vous aider, par exemple vous m'appeler tous les jours pour me dire que vous n avez pas consommer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Cette association s'occupe de gens..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_3_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cette association s'occupe de gens comme vous  qui ne savent pas que se droguer cest mal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "Enfin… Comment on peut faire ? Moi..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Enfin… Comment on peut faire ? Moi je suis obligé de rendre des comptes en fait c’est pour ça que je suis obligé d’aller vite</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/gêne: "oui mais...je n'ai pas de téléphone"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oui mais...je n'ai pas de téléphone</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "je sais que c mal la drogue mais j'..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_3_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>je sais que c mal la drogue mais j'arrive pas à m'arreter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "rendre des comptes à qui ?"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> rendre des comptes à qui ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Coment voulez vous vous en sortir ?"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coment voulez vous vous en sortir ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>medicament</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Ces medicaments que vous prenez à d..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_4_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ces medicaments que vous prenez à des amis, vous savez ce que c'est ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_2.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/gêne: "..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_2.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_3.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "oui"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_3.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_4_3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>oui</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_0.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/distrait: "Mais…. En fait, j’ai été interpellé..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_0.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_0.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mais…. En fait, j’ai été interpellé pour trafic de stupp.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700126.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Donc du coup vous consomm..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700126.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700126.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D’accord. Donc du coup vous consommez ? Vous consommez certains produits ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700133.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/gêne: "Oui, mais sa dépend de ce que j'ai...."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700133.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700133.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oui, mais sa dépend de ce que j'ai...et du pognon.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700147.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Donc cette obligation de..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700147.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700147.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>D’accord. Donc cette obligation de soins, c’est dans ce cadre-là, la consommation de drogue. ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700154.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "En fait, j’ai dit que non, que je n..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700154.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>72057624102700154.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>En fait, j’ai dit que non, que je ne consommais pas. Mais ils m’ont mis en garde en vue pendant 48h donc ils l’on bien vu….</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_4.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Vous consommez toujours actuellemen..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_4.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_1_4.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vous consommez toujours actuellement ?</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_4.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1 normal: "Pour l’instant, j’ai les médocs. Ma..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_4.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Answer_1_4.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pour l’instant, j’ai les médocs. Mais mon copain est passée. Mais bon, il va falloir que je lui  rende quoi. Donc il faut que je retrouve un médecin.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_0A4B0716.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/profil 1 normal: "apiouy 4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_0A4B0716.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_0A4B0716.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>apiouy 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_74E88467.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/Assistante sociale: "azerty 3"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_74E88467.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_74E88467.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>azerty 3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_B0BFAFB6.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/Assistante sociale: "zertyui 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_B0BFAFB6.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_B0BFAFB6.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>zertyui 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_DD1CAFBA.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/Assistante sociale: "azertyu 4"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_DD1CAFBA.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_DD1CAFBA.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>azertyu 4</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_5743A0BA.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/Assistante sociale: "azert 5"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_5743A0BA.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_5743A0BA.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>azert 5</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_138DF010.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/profil 1 normal: "poiuytre 1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_138DF010.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_138DF010.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>poiuytre 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_A6634DA1.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/profil 1 normal: "^poiuyt 2"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_A6634DA1.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_A6634DA1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>^poiuyt 2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_16F9CB02.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/essai_test/Assistante sociale: "azertyu 1"</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_16F9CB02.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DFr_16F9CB02.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>azertyu 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0.PreviewText</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D'accord, c’est une obligation de s..."</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0.StageDirections</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Dialog_0.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> D'accord, c’est une obligation de soin par rapport à quoi</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doc_890D2080.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>briefing last_week</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/briefing last_week</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Doc_890D2080.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_D304F34F.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Travail sur Articy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/briefing last_week/Travail sur Articy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_D304F34F.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sur articy s'occuper des dialogues rémédiations et indices ainsi que des entités
+- indices = objets d'inventaire
+- entité = profil patient et profil joueur 
+- dans le profil patient : une entité par état (émotionnelle)
+- remédiation = affichage ponctuelle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_61EB85B2.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Pédagogie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/Travail sur Articy/Pédagogie</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_61EB85B2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Conception pédagogique pouvant être faite sur un support différé mais à intégrer dans le Flow d'articy pour l'utilisation par l'équipe de dev à l'export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_53BC3076.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Développement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/briefing last_week/Développement</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_53BC3076.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>développement des scènes/interface et interactions uniquement sous Unity (sans utilisation d'articy)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_6B99817C.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Graphisme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/briefing last_week/Graphisme</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_6B99817C.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>graphisle entièrement intégré dans le dossier articy, à récupéré par les dev à l'export</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_9B8C6F87.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Note MAJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Documents/briefing last_week/Note MAJ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Txt_9B8C6F87.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>regarde dans le flow d'articy si je peux retrouver toute les caractéristiques techniques et les modifier pour que Théo Z s'y retrouve à l'intégration</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_619E4CC9.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assistante sociale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/Assistante sociale</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_619E4CC9.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Représente le joueur</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_05581525.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/Indice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_05581525.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_C74EAB4E.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>remediation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/remediation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_C74EAB4E.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_FE94C9D9.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>profil 1 normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/profil 1 normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_FE94C9D9.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Il s'agit du profil numero 1, venu en rdv pour un problème de suivi medical.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_50CC4EDF.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>gêne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/gêne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_50CC4EDF.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_37C57A39.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>colère</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/colère</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_37C57A39.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_637746F2.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>triste</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/triste</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_637746F2.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_E144814F.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>distrait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/distrait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_E144814F.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_B6AE636E.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>étonné</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/étonné</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_B6AE636E.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_225AC80C.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Entities/profil 1/content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ntt_225AC80C.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_51E57F6F.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>salle attente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/salle attente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_51E57F6F.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>salle d'attente ou sera effectuer le choix des profils</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_A5FC2C26.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bureau ASS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/bureau ASS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_A5FC2C26.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_6EADF365.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/Menu</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Loc_6EADF365.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_24CB7872.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>profil 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/salle attente/profil 1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_24CB7872.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_E9D4F2D5.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Journal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/bureau ASS/Journal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_E9D4F2D5.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_E4C316A3.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>aide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/bureau ASS/aide</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_E4C316A3.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_35A29B22.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jouer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/Menu/Jouer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_35A29B22.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_D4BE2552.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>options</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/Menu/options</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_D4BE2552.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_73E090FD.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>quitter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/Menu/quitter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Zon_73E090FD.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_DD24BDA1.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>salle_attente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/salle attente/salle_attente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_DD24BDA1.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_CBCC91DA.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>entretient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/bureau ASS/entretient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_CBCC91DA.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_E8C3AA0A.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Menu_provisoire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Locations/Menu/Menu_provisoire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIm_E8C3AA0A.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_53CAA688.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>theoDR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/theoDR(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_53CAA688.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_733C709A.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>elodie(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/elodie(1)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_733C709A.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_C01B0FDF.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/entretient</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_C01B0FDF.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_1D9A9A50.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/colère</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_1D9A9A50.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_F863D985.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/content</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_F863D985.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_5EE43987.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/distrait</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_5EE43987.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_DF31FE2E.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/étonné</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_DF31FE2E.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_87BEB311.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/gêne</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_87BEB311.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_D2AFB369.DisplayName</x:t>
   </x:si>
   <x:si>
     <x:t>normal</x:t>
   </x:si>
   <x:si>
-    <x:t>DFr_4B0871F0.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bonjour !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9B634841.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bonjour, Madame M assistante sociale.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "Bonjour, Madame M, entrez."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9B634841.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">serre la main </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9B634841.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bonjour, Madame M, entrez.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_C97D4B9C.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Bonjour </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "Bonjour"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_C97D4B9C.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>abrupte</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_C97D4B9C.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_49283A54.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Allez-y entrez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "Allez-y entrez"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_49283A54.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>polie et courtoise</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_49283A54.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_F5E835ED.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">Madame B, allez-y entrez </x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "Madame B, allez-y entrez"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_F5E835ED.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_F5E835ED.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madame B, allez-y entrez</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5F8965F7.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Madame B, entrez !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "Madame B, entrez !"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5F8965F7.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5F8965F7.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5CF1AB1D.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/profil 1: "..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5CF1AB1D.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>entre dans la piece</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5CF1AB1D.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_53252D44.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nicolas X</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/profil 1: "Nicolas X"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_53252D44.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_53252D44.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CCB915F9.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CCB915F9.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>entre dans la piece, regarde ses pieds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CCB915F9.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CF19D280.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>"Alors je vous écoute"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: ""Alors je vous écoute""</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CF19D280.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regarde la personne dans les yeux</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CF19D280.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_EA424AC1.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>alors pourquoi ce rendez-vous ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/Assistante sociale: "alors pourquoi ce rendez-vous ?"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_EA424AC1.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regarde son dossier</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_EA424AC1.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_956F4E59.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Hmmmm...</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1/profil 1: "Heummm…  Je viens pour… Je viens pa..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_956F4E59.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>gêné</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_956F4E59.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Heummm…  Je viens pour… Je viens parce que j'ai besoins de soins.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_56FF83B4.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D’accord. C’est quoi que vous consommez ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. C’est quoi que vous conso..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_56FF83B4.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">regarde la personne en face </x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_56FF83B4.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3C41A1F5.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ca dépend ce que j’ai… et du pognon…</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Ca dépend ce que j’ai… et du pognon..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3C41A1F5.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3C41A1F5.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95647D54.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vous vous rendez compte de la gravité !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Vous vous rendez compte de la gravi..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95647D54.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95647D54.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0C7D1BA2.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>accompagnement</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Et vous avez été déjà acc..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0C7D1BA2.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0C7D1BA2.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D’accord. Et vous avez été déjà accompagné dans ce cadre-là par une association ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_22AAA949.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oui !</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "oui !"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_22AAA949.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>colère</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_22AAA949.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CAC88206.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oui, j’ai déjà eu des traitements.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Oui, j’ai déjà eu des traitements."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CAC88206.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_CAC88206.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A8944C74.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "C’est une association qui accompagn..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A8944C74.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A8944C74.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>C’est une association qui accompagne les personnes qui  sont en situation de consommation de produits et qui souhaite en discuter avec un professionnel pour faire le point sur leur consommation. Puis après, des personnes aussi qui sont demandent de soutien pour arrêter ou pour en tous cas diminuer leur consommation car des fois c’est difficile d’être dans cette situation-là. Donc ces personnes-là peuvent vous soutenir. Il y a des travailleurs sociaux, une psychologue aussi.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_BDB2BF9A.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Moi je peux vous aider, par exemple..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_BDB2BF9A.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_BDB2BF9A.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Moi je peux vous aider, par exemple vous m'appeler tous les jours pour me dire que vous n avez pas consommer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_169CC323.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Cette association s'occupe de gens..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_169CC323.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_169CC323.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cette association s'occupe de gens comme vous  qui ne savent pas que se droguer cest mal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5560316E.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Enfin… Comment on peut faire ? Moi..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5560316E.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5560316E.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Enfin… Comment on peut faire ? Moi je suis obligé de rendre des comptes en fait c’est pour ça que je suis obligé d’aller vite</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3E06983C.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "oui mais...je n'ai pas de téléphone"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3E06983C.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3E06983C.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>oui mais...je n'ai pas de téléphone</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_7BAE9DE7.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "je sais que c mal la drogue mais j'..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_7BAE9DE7.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_7BAE9DE7.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>je sais que c mal la drogue mais j'arrive pas à m'arreter</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95BDA715.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "rendre des comptes à qui ?"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95BDA715.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_95BDA715.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> rendre des comptes à qui ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_13447766.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Coment voulez vous vous en sortir ?"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_13447766.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_13447766.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Coment voulez vous vous en sortir ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_FB6F7B5F.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Ces medicaments que vous prenez à d..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_FB6F7B5F.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_FB6F7B5F.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ces medicaments que vous prenez à des amis, vous savez ce que c'est ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_64B78CDF.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_64B78CDF.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_64B78CDF.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4D5CDC27.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4D5CDC27.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4D5CDC27.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9CE9BFC3.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9CE9BFC3.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_9CE9BFC3.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_ABC8F5B4.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Mais…. En fait, j’ai été interpellé..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_ABC8F5B4.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>regarde ses pieds</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_ABC8F5B4.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mais…. En fait, j’ai été interpellé pour trafic de stupp.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B4028708.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Donc du coup vous consomm..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B4028708.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B4028708.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D’accord. Donc du coup vous consommez ? Vous consommez certains produits ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_480BF872.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oui</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Oui, mais sa dépend de ce que j'ai...."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_480BF872.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_480BF872.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Oui, mais sa dépend de ce que j'ai...et du pognon.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4498BD48.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D’accord. Donc cette obligation de..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4498BD48.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_4498BD48.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>D’accord. Donc cette obligation de soins, c’est dans ce cadre-là, la consommation de drogue. ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3577B72E.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "En fait, j’ai dit que non, que je n..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3577B72E.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_3577B72E.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>En fait, j’ai dit que non, que je ne consommais pas. Mais ils m’ont mis en garde en vue pendant 48h donc ils l’on bien vu….</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_04C56BD1.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "Vous consommez toujours actuellemen..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_04C56BD1.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_04C56BD1.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Vous consommez toujours actuellement ?</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_6A98A56F.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/profil 1: "Pour l’instant, j’ai les médocs. Ma..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_6A98A56F.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_6A98A56F.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Pour l’instant, j’ai les médocs. Mais mon copain est passée. Mais bon, il va falloir que je lui  rende quoi. Donc il faut que je retrouve un médecin.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0A4B0716.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/profil 1: "apiouy 4"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0A4B0716.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_0A4B0716.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>apiouy 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_74E88467.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/Assistante sociale: "azerty 3"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_74E88467.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_74E88467.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>azerty 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B0BFAFB6.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/Assistante sociale: "zertyui 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B0BFAFB6.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_B0BFAFB6.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>zertyui 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_DD1CAFBA.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/Assistante sociale: "azertyu 4"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_DD1CAFBA.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_DD1CAFBA.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>azertyu 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5743A0BA.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/Assistante sociale: "azert 5"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5743A0BA.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5743A0BA.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>azert 5</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_138DF010.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/profil 1: "poiuytre 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_138DF010.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_138DF010.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>poiuytre 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A6634DA1.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/profil 1: "^poiuyt 2"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A6634DA1.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_A6634DA1.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>^poiuyt 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_16F9CB02.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/essai_test/Assistante sociale: "azertyu 1"</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_16F9CB02.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_16F9CB02.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>azertyu 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5DF16965.PreviewText</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Flow/Profil 1 RECCUEIL DE DONNEE/Assistante sociale: "D'accord, c’est une obligation de s..."</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5DF16965.StageDirections</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DFr_5DF16965.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> D'accord, c’est une obligation de soin par rapport à quoi</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_FE94C9D9.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>profil 1</x:t>
+    <x:t>Assets/expression/normal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_D2AFB369.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3072AD7A.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/expression/triste</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3072AD7A.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3DC58597.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>intérieur-moderne-de-salle-d-attente-de-bureau-70995963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/intérieur-moderne-de-salle-d-attente-de-bureau-70995963</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3DC58597.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_09FD717E.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/salle_attente</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_09FD717E.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3A0F5EC9.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/Menu_provisoire</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ast_3A0F5EC9.Text</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ufo_69995863.DisplayName</x:t>
   </x:si>
   <x:si>
     <x:t>Entities/profil 1</x:t>
   </x:si>
   <x:si>
-    <x:t>Ntt_FE94C9D9.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Il s'agit du profil numero 1, venu en rdv pour un problème de suivi medical.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_619E4CC9.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assistante sociale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entities/Assistante sociale</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_619E4CC9.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Représente le joueur</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_05581525.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Indice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entities/Indice</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_05581525.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_C74EAB4E.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>remediation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entities/remediation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ntt_C74EAB4E.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_53CAA688.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>theoDR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assets/Images/theoDR(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_53CAA688.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_733C709A.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>elodie(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assets/Images/elodie(1)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_733C709A.Text</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_8DBED825.DisplayName</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ASS_decor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Assets/Images/ASS_decor</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Ast_8DBED825.Text</x:t>
-  </x:si>
-  <x:si>
     <x:t>Ufo_71BDD78A.DisplayName</x:t>
   </x:si>
   <x:si>
@@ -904,6 +1325,15 @@
     <x:t>Assets/Images</x:t>
   </x:si>
   <x:si>
+    <x:t>Ufo_89FA286C.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>expression</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Assets/Images/expression</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ufo_904DBC82.DisplayName</x:t>
   </x:si>
   <x:si>
@@ -947,6 +1377,30 @@
   </x:si>
   <x:si>
     <x:t>Journeys/the good Way</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ufo_C37091EF.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>etats</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Template Design/Features/etats</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ufo_8C78DC47.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>location_feature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Template Design/Features/location_feature</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ufo_75B931FD.DisplayName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Template Design/Assets/expression</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1017,7 +1471,7 @@
       </x:diagonal>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="3">
+  <x:cellStyleXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -1027,8 +1481,11 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="3">
+  <x:cellXfs count="4">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
@@ -1039,6 +1496,10 @@
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
       <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+      <x:alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellXfs>
@@ -1336,7 +1797,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:D165"/>
+  <x:dimension ref="A1:D240"/>
   <x:sheetViews>
     <x:sheetView tabSelected="0" workbookViewId="0"/>
   </x:sheetViews>
@@ -1378,9 +1839,7 @@
       <x:c r="A3" s="2" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B3" s="2" t="s">
-        <x:v>8</x:v>
-      </x:c>
+      <x:c r="B3" s="2" t="s"/>
       <x:c r="C3" s="2" t="s">
         <x:v>6</x:v>
       </x:c>
@@ -1388,47 +1847,49 @@
     </x:row>
     <x:row r="4" spans="1:4">
       <x:c r="A4" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B4" s="2" t="s">
+      <x:c r="C4" s="2" t="s">
         <x:v>10</x:v>
-      </x:c>
-      <x:c r="C4" s="2" t="s">
-        <x:v>11</x:v>
       </x:c>
       <x:c r="D4" s="2" t="s"/>
     </x:row>
     <x:row r="5" spans="1:4">
       <x:c r="A5" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="B5" s="2" t="s">
-        <x:v>13</x:v>
-      </x:c>
       <x:c r="C5" s="2" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="D5" s="2" t="s"/>
     </x:row>
     <x:row r="6" spans="1:4">
       <x:c r="A6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="B6" s="2" t="s">
+      <x:c r="C6" s="2" t="s">
         <x:v>15</x:v>
-      </x:c>
-      <x:c r="C6" s="2" t="s">
-        <x:v>16</x:v>
       </x:c>
       <x:c r="D6" s="2" t="s"/>
     </x:row>
     <x:row r="7" spans="1:4">
       <x:c r="A7" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="B7" s="2" t="s"/>
       <x:c r="C7" s="2" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="D7" s="2" t="s"/>
     </x:row>
@@ -1448,9 +1909,7 @@
       <x:c r="A9" s="2" t="s">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="B9" s="2" t="s">
-        <x:v>22</x:v>
-      </x:c>
+      <x:c r="B9" s="2" t="s"/>
       <x:c r="C9" s="2" t="s">
         <x:v>20</x:v>
       </x:c>
@@ -1458,13 +1917,13 @@
     </x:row>
     <x:row r="10" spans="1:4">
       <x:c r="A10" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
         <x:v>23</x:v>
       </x:c>
-      <x:c r="B10" s="2" t="s">
+      <x:c r="C10" s="2" t="s">
         <x:v>24</x:v>
-      </x:c>
-      <x:c r="C10" s="2" t="s">
-        <x:v>20</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s"/>
     </x:row>
@@ -1472,247 +1931,237 @@
       <x:c r="A11" s="2" t="s">
         <x:v>25</x:v>
       </x:c>
-      <x:c r="B11" s="2" t="s">
-        <x:v>26</x:v>
-      </x:c>
+      <x:c r="B11" s="2" t="s"/>
       <x:c r="C11" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D11" s="2" t="s"/>
     </x:row>
     <x:row r="12" spans="1:4">
       <x:c r="A12" s="2" t="s">
-        <x:v>28</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="B12" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C12" s="2" t="s">
-        <x:v>27</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="D12" s="2" t="s"/>
     </x:row>
     <x:row r="13" spans="1:4">
       <x:c r="A13" s="2" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="s">
         <x:v>30</x:v>
-      </x:c>
-      <x:c r="B13" s="2" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C13" s="2" t="s">
-        <x:v>27</x:v>
       </x:c>
       <x:c r="D13" s="2" t="s"/>
     </x:row>
     <x:row r="14" spans="1:4">
       <x:c r="A14" s="2" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B14" s="2" t="s">
-        <x:v>33</x:v>
-      </x:c>
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s"/>
       <x:c r="C14" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D14" s="2" t="s"/>
     </x:row>
     <x:row r="15" spans="1:4">
       <x:c r="A15" s="2" t="s">
-        <x:v>35</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="B15" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="C15" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="D15" s="2" t="s"/>
     </x:row>
     <x:row r="16" spans="1:4">
       <x:c r="A16" s="2" t="s">
-        <x:v>37</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="B16" s="2" t="s">
-        <x:v>19</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="C16" s="2" t="s">
-        <x:v>34</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D16" s="2" t="s"/>
     </x:row>
     <x:row r="17" spans="1:4">
       <x:c r="A17" s="2" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="B17" s="2" t="s">
-        <x:v>39</x:v>
-      </x:c>
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s"/>
       <x:c r="C17" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D17" s="2" t="s"/>
     </x:row>
     <x:row r="18" spans="1:4">
       <x:c r="A18" s="2" t="s">
-        <x:v>41</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="B18" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C18" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D18" s="2" t="s"/>
     </x:row>
     <x:row r="19" spans="1:4">
       <x:c r="A19" s="2" t="s">
-        <x:v>43</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="B19" s="2" t="s">
-        <x:v>39</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C19" s="2" t="s">
-        <x:v>40</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D19" s="2" t="s"/>
     </x:row>
     <x:row r="20" spans="1:4">
       <x:c r="A20" s="2" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="B20" s="2" t="s">
-        <x:v>45</x:v>
-      </x:c>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s"/>
       <x:c r="C20" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D20" s="2" t="s"/>
     </x:row>
     <x:row r="21" spans="1:4">
       <x:c r="A21" s="2" t="s">
-        <x:v>47</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B21" s="2" t="s">
-        <x:v>42</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C21" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="D21" s="2" t="s"/>
     </x:row>
     <x:row r="22" spans="1:4">
       <x:c r="A22" s="2" t="s">
-        <x:v>48</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="B22" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C22" s="2" t="s">
-        <x:v>46</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D22" s="2" t="s"/>
     </x:row>
     <x:row r="23" spans="1:4">
       <x:c r="A23" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="B23" s="2" t="s">
-        <x:v>51</x:v>
-      </x:c>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s"/>
       <x:c r="C23" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D23" s="2" t="s"/>
     </x:row>
     <x:row r="24" spans="1:4">
       <x:c r="A24" s="2" t="s">
-        <x:v>53</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="B24" s="2" t="s">
-        <x:v>36</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C24" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="D24" s="2" t="s"/>
     </x:row>
     <x:row r="25" spans="1:4">
       <x:c r="A25" s="2" t="s">
-        <x:v>54</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="B25" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C25" s="2" t="s">
-        <x:v>52</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D25" s="2" t="s"/>
     </x:row>
     <x:row r="26" spans="1:4">
       <x:c r="A26" s="2" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="B26" s="2" t="s">
         <x:v>55</x:v>
       </x:c>
-      <x:c r="B26" s="2" t="s"/>
       <x:c r="C26" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D26" s="2" t="s"/>
     </x:row>
     <x:row r="27" spans="1:4">
       <x:c r="A27" s="2" t="s">
-        <x:v>57</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="B27" s="2" t="s">
-        <x:v>58</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C27" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="D27" s="2" t="s"/>
     </x:row>
     <x:row r="28" spans="1:4">
       <x:c r="A28" s="2" t="s">
-        <x:v>59</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="B28" s="2" t="s"/>
       <x:c r="C28" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D28" s="2" t="s"/>
     </x:row>
     <x:row r="29" spans="1:4">
       <x:c r="A29" s="2" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B29" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B29" s="2" t="s"/>
       <x:c r="C29" s="2" t="s">
-        <x:v>62</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D29" s="2" t="s"/>
     </x:row>
     <x:row r="30" spans="1:4">
       <x:c r="A30" s="2" t="s">
-        <x:v>63</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B30" s="2" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
         <x:v>58</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="D30" s="2" t="s"/>
     </x:row>
     <x:row r="31" spans="1:4">
       <x:c r="A31" s="2" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
         <x:v>64</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>62</x:v>
       </x:c>
       <x:c r="D31" s="2" t="s"/>
     </x:row>
@@ -1722,7 +2171,7 @@
       </x:c>
       <x:c r="B32" s="2" t="s"/>
       <x:c r="C32" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D32" s="2" t="s"/>
     </x:row>
@@ -1734,7 +2183,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="C33" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="D33" s="2" t="s"/>
     </x:row>
@@ -1744,43 +2193,41 @@
       </x:c>
       <x:c r="B34" s="2" t="s"/>
       <x:c r="C34" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D34" s="2" t="s"/>
     </x:row>
     <x:row r="35" spans="1:4">
       <x:c r="A35" s="2" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="B35" s="2" t="s"/>
+      <x:c r="C35" s="2" t="s">
         <x:v>69</x:v>
-      </x:c>
-      <x:c r="B35" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C35" s="2" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="D35" s="2" t="s"/>
     </x:row>
     <x:row r="36" spans="1:4">
       <x:c r="A36" s="2" t="s">
-        <x:v>72</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="B36" s="2" t="s">
-        <x:v>73</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C36" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="D36" s="2" t="s"/>
     </x:row>
     <x:row r="37" spans="1:4">
       <x:c r="A37" s="2" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="B37" s="2" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C37" s="2" t="s">
         <x:v>74</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>70</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>71</x:v>
       </x:c>
       <x:c r="D37" s="2" t="s"/>
     </x:row>
@@ -1788,35 +2235,33 @@
       <x:c r="A38" s="2" t="s">
         <x:v>75</x:v>
       </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
+      <x:c r="B38" s="2" t="s"/>
       <x:c r="C38" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D38" s="2" t="s"/>
     </x:row>
     <x:row r="39" spans="1:4">
       <x:c r="A39" s="2" t="s">
-        <x:v>78</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="B39" s="2" t="s">
-        <x:v>79</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C39" s="2" t="s">
-        <x:v>77</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D39" s="2" t="s"/>
     </x:row>
     <x:row r="40" spans="1:4">
       <x:c r="A40" s="2" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B40" s="2" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C40" s="2" t="s">
         <x:v>80</x:v>
-      </x:c>
-      <x:c r="B40" s="2" t="s">
-        <x:v>76</x:v>
-      </x:c>
-      <x:c r="C40" s="2" t="s">
-        <x:v>77</x:v>
       </x:c>
       <x:c r="D40" s="2" t="s"/>
     </x:row>
@@ -1824,107 +2269,103 @@
       <x:c r="A41" s="2" t="s">
         <x:v>81</x:v>
       </x:c>
-      <x:c r="B41" s="2" t="s">
-        <x:v>82</x:v>
-      </x:c>
+      <x:c r="B41" s="2" t="s"/>
       <x:c r="C41" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D41" s="2" t="s"/>
     </x:row>
     <x:row r="42" spans="1:4">
       <x:c r="A42" s="2" t="s">
-        <x:v>84</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="B42" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C42" s="2" t="s">
-        <x:v>83</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="D42" s="2" t="s"/>
     </x:row>
     <x:row r="43" spans="1:4">
       <x:c r="A43" s="2" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="B43" s="2" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C43" s="2" t="s">
         <x:v>86</x:v>
-      </x:c>
-      <x:c r="B43" s="2" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C43" s="2" t="s">
-        <x:v>83</x:v>
       </x:c>
       <x:c r="D43" s="2" t="s"/>
     </x:row>
     <x:row r="44" spans="1:4">
       <x:c r="A44" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="B44" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="B44" s="2" t="s"/>
       <x:c r="C44" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D44" s="2" t="s"/>
     </x:row>
     <x:row r="45" spans="1:4">
       <x:c r="A45" s="2" t="s">
-        <x:v>91</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="B45" s="2" t="s">
-        <x:v>92</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C45" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="D45" s="2" t="s"/>
     </x:row>
     <x:row r="46" spans="1:4">
       <x:c r="A46" s="2" t="s">
-        <x:v>93</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="B46" s="2" t="s">
-        <x:v>89</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C46" s="2" t="s">
-        <x:v>90</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D46" s="2" t="s"/>
     </x:row>
     <x:row r="47" spans="1:4">
       <x:c r="A47" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="B47" s="2" t="s">
         <x:v>94</x:v>
       </x:c>
-      <x:c r="B47" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
       <x:c r="C47" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D47" s="2" t="s"/>
     </x:row>
     <x:row r="48" spans="1:4">
       <x:c r="A48" s="2" t="s">
-        <x:v>97</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="B48" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="C48" s="2" t="s">
-        <x:v>96</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="D48" s="2" t="s"/>
     </x:row>
     <x:row r="49" spans="1:4">
       <x:c r="A49" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
         <x:v>98</x:v>
-      </x:c>
-      <x:c r="B49" s="2" t="s">
-        <x:v>95</x:v>
-      </x:c>
-      <x:c r="C49" s="2" t="s">
-        <x:v>96</x:v>
       </x:c>
       <x:c r="D49" s="2" t="s"/>
     </x:row>
@@ -1932,33 +2373,33 @@
       <x:c r="A50" s="2" t="s">
         <x:v>99</x:v>
       </x:c>
-      <x:c r="B50" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
+      <x:c r="B50" s="2" t="s"/>
       <x:c r="C50" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D50" s="2" t="s"/>
     </x:row>
     <x:row r="51" spans="1:4">
       <x:c r="A51" s="2" t="s">
-        <x:v>102</x:v>
-      </x:c>
-      <x:c r="B51" s="2" t="s"/>
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>97</x:v>
+      </x:c>
       <x:c r="C51" s="2" t="s">
-        <x:v>101</x:v>
+        <x:v>98</x:v>
       </x:c>
       <x:c r="D51" s="2" t="s"/>
     </x:row>
     <x:row r="52" spans="1:4">
       <x:c r="A52" s="2" t="s">
+        <x:v>101</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
         <x:v>103</x:v>
-      </x:c>
-      <x:c r="B52" s="2" t="s">
-        <x:v>100</x:v>
-      </x:c>
-      <x:c r="C52" s="2" t="s">
-        <x:v>101</x:v>
       </x:c>
       <x:c r="D52" s="2" t="s"/>
     </x:row>
@@ -1966,429 +2407,423 @@
       <x:c r="A53" s="2" t="s">
         <x:v>104</x:v>
       </x:c>
-      <x:c r="B53" s="2" t="s">
-        <x:v>105</x:v>
-      </x:c>
+      <x:c r="B53" s="2" t="s"/>
       <x:c r="C53" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D53" s="2" t="s"/>
     </x:row>
     <x:row r="54" spans="1:4">
       <x:c r="A54" s="2" t="s">
-        <x:v>107</x:v>
-      </x:c>
-      <x:c r="B54" s="2" t="s"/>
+        <x:v>105</x:v>
+      </x:c>
+      <x:c r="B54" s="2" t="s">
+        <x:v>102</x:v>
+      </x:c>
       <x:c r="C54" s="2" t="s">
-        <x:v>106</x:v>
+        <x:v>103</x:v>
       </x:c>
       <x:c r="D54" s="2" t="s"/>
     </x:row>
     <x:row r="55" spans="1:4">
       <x:c r="A55" s="2" t="s">
+        <x:v>106</x:v>
+      </x:c>
+      <x:c r="B55" s="2" t="s">
+        <x:v>107</x:v>
+      </x:c>
+      <x:c r="C55" s="2" t="s">
         <x:v>108</x:v>
-      </x:c>
-      <x:c r="B55" s="2" t="s">
-        <x:v>109</x:v>
-      </x:c>
-      <x:c r="C55" s="2" t="s">
-        <x:v>106</x:v>
       </x:c>
       <x:c r="D55" s="2" t="s"/>
     </x:row>
     <x:row r="56" spans="1:4">
       <x:c r="A56" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="B56" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
+        <x:v>109</x:v>
+      </x:c>
+      <x:c r="B56" s="2" t="s"/>
       <x:c r="C56" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D56" s="2" t="s"/>
     </x:row>
     <x:row r="57" spans="1:4">
       <x:c r="A57" s="2" t="s">
-        <x:v>113</x:v>
+        <x:v>110</x:v>
       </x:c>
       <x:c r="B57" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>111</x:v>
       </x:c>
       <x:c r="C57" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>108</x:v>
       </x:c>
       <x:c r="D57" s="2" t="s"/>
     </x:row>
     <x:row r="58" spans="1:4">
       <x:c r="A58" s="2" t="s">
-        <x:v>115</x:v>
+        <x:v>112</x:v>
       </x:c>
       <x:c r="B58" s="2" t="s">
-        <x:v>111</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C58" s="2" t="s">
-        <x:v>112</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D58" s="2" t="s"/>
     </x:row>
     <x:row r="59" spans="1:4">
       <x:c r="A59" s="2" t="s">
-        <x:v>116</x:v>
-      </x:c>
-      <x:c r="B59" s="2" t="s">
-        <x:v>117</x:v>
-      </x:c>
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="B59" s="2" t="s"/>
       <x:c r="C59" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D59" s="2" t="s"/>
     </x:row>
     <x:row r="60" spans="1:4">
       <x:c r="A60" s="2" t="s">
-        <x:v>119</x:v>
+        <x:v>116</x:v>
       </x:c>
       <x:c r="B60" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>113</x:v>
       </x:c>
       <x:c r="C60" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>114</x:v>
       </x:c>
       <x:c r="D60" s="2" t="s"/>
     </x:row>
     <x:row r="61" spans="1:4">
       <x:c r="A61" s="2" t="s">
-        <x:v>120</x:v>
+        <x:v>117</x:v>
       </x:c>
       <x:c r="B61" s="2" t="s">
-        <x:v>117</x:v>
+        <x:v>118</x:v>
       </x:c>
       <x:c r="C61" s="2" t="s">
-        <x:v>118</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D61" s="2" t="s"/>
     </x:row>
     <x:row r="62" spans="1:4">
       <x:c r="A62" s="2" t="s">
-        <x:v>121</x:v>
+        <x:v>120</x:v>
       </x:c>
       <x:c r="B62" s="2" t="s"/>
       <x:c r="C62" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D62" s="2" t="s"/>
     </x:row>
     <x:row r="63" spans="1:4">
       <x:c r="A63" s="2" t="s">
-        <x:v>123</x:v>
-      </x:c>
-      <x:c r="B63" s="2" t="s"/>
+        <x:v>121</x:v>
+      </x:c>
+      <x:c r="B63" s="2" t="s">
+        <x:v>118</x:v>
+      </x:c>
       <x:c r="C63" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>119</x:v>
       </x:c>
       <x:c r="D63" s="2" t="s"/>
     </x:row>
     <x:row r="64" spans="1:4">
       <x:c r="A64" s="2" t="s">
-        <x:v>124</x:v>
-      </x:c>
-      <x:c r="B64" s="2" t="s">
-        <x:v>125</x:v>
-      </x:c>
+        <x:v>122</x:v>
+      </x:c>
+      <x:c r="B64" s="2" t="s"/>
       <x:c r="C64" s="2" t="s">
-        <x:v>122</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D64" s="2" t="s"/>
     </x:row>
     <x:row r="65" spans="1:4">
       <x:c r="A65" s="2" t="s">
-        <x:v>126</x:v>
+        <x:v>124</x:v>
       </x:c>
       <x:c r="B65" s="2" t="s"/>
       <x:c r="C65" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D65" s="2" t="s"/>
     </x:row>
     <x:row r="66" spans="1:4">
       <x:c r="A66" s="2" t="s">
-        <x:v>128</x:v>
-      </x:c>
-      <x:c r="B66" s="2" t="s"/>
+        <x:v>125</x:v>
+      </x:c>
+      <x:c r="B66" s="2" t="s">
+        <x:v>126</x:v>
+      </x:c>
       <x:c r="C66" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>123</x:v>
       </x:c>
       <x:c r="D66" s="2" t="s"/>
     </x:row>
     <x:row r="67" spans="1:4">
       <x:c r="A67" s="2" t="s">
-        <x:v>129</x:v>
-      </x:c>
-      <x:c r="B67" s="2" t="s">
-        <x:v>130</x:v>
-      </x:c>
+        <x:v>127</x:v>
+      </x:c>
+      <x:c r="B67" s="2" t="s"/>
       <x:c r="C67" s="2" t="s">
-        <x:v>127</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D67" s="2" t="s"/>
     </x:row>
     <x:row r="68" spans="1:4">
       <x:c r="A68" s="2" t="s">
-        <x:v>131</x:v>
+        <x:v>129</x:v>
       </x:c>
       <x:c r="B68" s="2" t="s"/>
       <x:c r="C68" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D68" s="2" t="s"/>
     </x:row>
     <x:row r="69" spans="1:4">
       <x:c r="A69" s="2" t="s">
-        <x:v>133</x:v>
-      </x:c>
-      <x:c r="B69" s="2" t="s"/>
+        <x:v>130</x:v>
+      </x:c>
+      <x:c r="B69" s="2" t="s">
+        <x:v>131</x:v>
+      </x:c>
       <x:c r="C69" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>128</x:v>
       </x:c>
       <x:c r="D69" s="2" t="s"/>
     </x:row>
     <x:row r="70" spans="1:4">
       <x:c r="A70" s="2" t="s">
-        <x:v>134</x:v>
-      </x:c>
-      <x:c r="B70" s="2" t="s">
-        <x:v>135</x:v>
-      </x:c>
+        <x:v>132</x:v>
+      </x:c>
+      <x:c r="B70" s="2" t="s"/>
       <x:c r="C70" s="2" t="s">
-        <x:v>132</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D70" s="2" t="s"/>
     </x:row>
     <x:row r="71" spans="1:4">
       <x:c r="A71" s="2" t="s">
-        <x:v>136</x:v>
+        <x:v>134</x:v>
       </x:c>
       <x:c r="B71" s="2" t="s"/>
       <x:c r="C71" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D71" s="2" t="s"/>
     </x:row>
     <x:row r="72" spans="1:4">
       <x:c r="A72" s="2" t="s">
-        <x:v>138</x:v>
+        <x:v>135</x:v>
       </x:c>
       <x:c r="B72" s="2" t="s">
-        <x:v>22</x:v>
+        <x:v>136</x:v>
       </x:c>
       <x:c r="C72" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>133</x:v>
       </x:c>
       <x:c r="D72" s="2" t="s"/>
     </x:row>
     <x:row r="73" spans="1:4">
       <x:c r="A73" s="2" t="s">
-        <x:v>139</x:v>
-      </x:c>
-      <x:c r="B73" s="2" t="s">
-        <x:v>140</x:v>
-      </x:c>
+        <x:v>137</x:v>
+      </x:c>
+      <x:c r="B73" s="2" t="s"/>
       <x:c r="C73" s="2" t="s">
-        <x:v>137</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D73" s="2" t="s"/>
     </x:row>
     <x:row r="74" spans="1:4">
       <x:c r="A74" s="2" t="s">
-        <x:v>141</x:v>
+        <x:v>139</x:v>
       </x:c>
       <x:c r="B74" s="2" t="s"/>
       <x:c r="C74" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D74" s="2" t="s"/>
     </x:row>
     <x:row r="75" spans="1:4">
       <x:c r="A75" s="2" t="s">
-        <x:v>143</x:v>
+        <x:v>140</x:v>
       </x:c>
       <x:c r="B75" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>141</x:v>
       </x:c>
       <x:c r="C75" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>138</x:v>
       </x:c>
       <x:c r="D75" s="2" t="s"/>
     </x:row>
     <x:row r="76" spans="1:4">
       <x:c r="A76" s="2" t="s">
-        <x:v>144</x:v>
-      </x:c>
-      <x:c r="B76" s="2" t="s">
-        <x:v>145</x:v>
-      </x:c>
+        <x:v>142</x:v>
+      </x:c>
+      <x:c r="B76" s="2" t="s"/>
       <x:c r="C76" s="2" t="s">
-        <x:v>142</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D76" s="2" t="s"/>
     </x:row>
     <x:row r="77" spans="1:4">
       <x:c r="A77" s="2" t="s">
-        <x:v>146</x:v>
+        <x:v>144</x:v>
       </x:c>
       <x:c r="B77" s="2" t="s"/>
       <x:c r="C77" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D77" s="2" t="s"/>
     </x:row>
     <x:row r="78" spans="1:4">
       <x:c r="A78" s="2" t="s">
-        <x:v>148</x:v>
+        <x:v>145</x:v>
       </x:c>
       <x:c r="B78" s="2" t="s">
-        <x:v>114</x:v>
+        <x:v>146</x:v>
       </x:c>
       <x:c r="C78" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>143</x:v>
       </x:c>
       <x:c r="D78" s="2" t="s"/>
     </x:row>
     <x:row r="79" spans="1:4">
       <x:c r="A79" s="2" t="s">
-        <x:v>149</x:v>
-      </x:c>
-      <x:c r="B79" s="2" t="s">
-        <x:v>150</x:v>
-      </x:c>
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="B79" s="2" t="s"/>
       <x:c r="C79" s="2" t="s">
-        <x:v>147</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D79" s="2" t="s"/>
     </x:row>
     <x:row r="80" spans="1:4">
       <x:c r="A80" s="2" t="s">
-        <x:v>151</x:v>
+        <x:v>149</x:v>
       </x:c>
       <x:c r="B80" s="2" t="s"/>
       <x:c r="C80" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D80" s="2" t="s"/>
     </x:row>
     <x:row r="81" spans="1:4">
       <x:c r="A81" s="2" t="s">
-        <x:v>153</x:v>
-      </x:c>
-      <x:c r="B81" s="2" t="s"/>
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="B81" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
       <x:c r="C81" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>148</x:v>
       </x:c>
       <x:c r="D81" s="2" t="s"/>
     </x:row>
     <x:row r="82" spans="1:4">
       <x:c r="A82" s="2" t="s">
-        <x:v>154</x:v>
-      </x:c>
-      <x:c r="B82" s="2" t="s">
-        <x:v>155</x:v>
-      </x:c>
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="B82" s="2" t="s"/>
       <x:c r="C82" s="2" t="s">
-        <x:v>152</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D82" s="2" t="s"/>
     </x:row>
     <x:row r="83" spans="1:4">
       <x:c r="A83" s="2" t="s">
-        <x:v>156</x:v>
+        <x:v>154</x:v>
       </x:c>
       <x:c r="B83" s="2" t="s"/>
       <x:c r="C83" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D83" s="2" t="s"/>
     </x:row>
     <x:row r="84" spans="1:4">
       <x:c r="A84" s="2" t="s">
-        <x:v>158</x:v>
-      </x:c>
-      <x:c r="B84" s="2" t="s"/>
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="B84" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
       <x:c r="C84" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>153</x:v>
       </x:c>
       <x:c r="D84" s="2" t="s"/>
     </x:row>
     <x:row r="85" spans="1:4">
       <x:c r="A85" s="2" t="s">
-        <x:v>159</x:v>
-      </x:c>
-      <x:c r="B85" s="2" t="s">
-        <x:v>160</x:v>
-      </x:c>
+        <x:v>157</x:v>
+      </x:c>
+      <x:c r="B85" s="2" t="s"/>
       <x:c r="C85" s="2" t="s">
-        <x:v>157</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D85" s="2" t="s"/>
     </x:row>
     <x:row r="86" spans="1:4">
       <x:c r="A86" s="2" t="s">
-        <x:v>161</x:v>
+        <x:v>159</x:v>
       </x:c>
       <x:c r="B86" s="2" t="s"/>
       <x:c r="C86" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D86" s="2" t="s"/>
     </x:row>
     <x:row r="87" spans="1:4">
       <x:c r="A87" s="2" t="s">
-        <x:v>163</x:v>
-      </x:c>
-      <x:c r="B87" s="2" t="s"/>
+        <x:v>160</x:v>
+      </x:c>
+      <x:c r="B87" s="2" t="s">
+        <x:v>161</x:v>
+      </x:c>
       <x:c r="C87" s="2" t="s">
-        <x:v>162</x:v>
+        <x:v>158</x:v>
       </x:c>
       <x:c r="D87" s="2" t="s"/>
     </x:row>
     <x:row r="88" spans="1:4">
       <x:c r="A88" s="2" t="s">
+        <x:v>162</x:v>
+      </x:c>
+      <x:c r="B88" s="2" t="s">
+        <x:v>163</x:v>
+      </x:c>
+      <x:c r="C88" s="2" t="s">
         <x:v>164</x:v>
-      </x:c>
-      <x:c r="B88" s="2" t="s">
-        <x:v>165</x:v>
-      </x:c>
-      <x:c r="C88" s="2" t="s">
-        <x:v>162</x:v>
       </x:c>
       <x:c r="D88" s="2" t="s"/>
     </x:row>
     <x:row r="89" spans="1:4">
       <x:c r="A89" s="2" t="s">
-        <x:v>166</x:v>
+        <x:v>165</x:v>
       </x:c>
       <x:c r="B89" s="2" t="s"/>
       <x:c r="C89" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D89" s="2" t="s"/>
     </x:row>
     <x:row r="90" spans="1:4">
       <x:c r="A90" s="2" t="s">
-        <x:v>168</x:v>
-      </x:c>
-      <x:c r="B90" s="2" t="s"/>
+        <x:v>166</x:v>
+      </x:c>
+      <x:c r="B90" s="2" t="s">
+        <x:v>167</x:v>
+      </x:c>
       <x:c r="C90" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>164</x:v>
       </x:c>
       <x:c r="D90" s="2" t="s"/>
     </x:row>
     <x:row r="91" spans="1:4">
       <x:c r="A91" s="2" t="s">
-        <x:v>169</x:v>
+        <x:v>168</x:v>
       </x:c>
       <x:c r="B91" s="2" t="s"/>
       <x:c r="C91" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D91" s="2" t="s"/>
     </x:row>
@@ -2398,7 +2833,7 @@
       </x:c>
       <x:c r="B92" s="2" t="s"/>
       <x:c r="C92" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D92" s="2" t="s"/>
     </x:row>
@@ -2408,7 +2843,7 @@
       </x:c>
       <x:c r="B93" s="2" t="s"/>
       <x:c r="C93" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>169</x:v>
       </x:c>
       <x:c r="D93" s="2" t="s"/>
     </x:row>
@@ -2418,77 +2853,77 @@
       </x:c>
       <x:c r="B94" s="2" t="s"/>
       <x:c r="C94" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D94" s="2" t="s"/>
     </x:row>
     <x:row r="95" spans="1:4">
       <x:c r="A95" s="2" t="s">
-        <x:v>173</x:v>
+        <x:v>174</x:v>
       </x:c>
       <x:c r="B95" s="2" t="s"/>
       <x:c r="C95" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D95" s="2" t="s"/>
     </x:row>
     <x:row r="96" spans="1:4">
       <x:c r="A96" s="2" t="s">
-        <x:v>174</x:v>
+        <x:v>175</x:v>
       </x:c>
       <x:c r="B96" s="2" t="s"/>
       <x:c r="C96" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>173</x:v>
       </x:c>
       <x:c r="D96" s="2" t="s"/>
     </x:row>
     <x:row r="97" spans="1:4">
       <x:c r="A97" s="2" t="s">
-        <x:v>175</x:v>
-      </x:c>
-      <x:c r="B97" s="2" t="s"/>
+        <x:v>176</x:v>
+      </x:c>
+      <x:c r="B97" s="2" t="s">
+        <x:v>177</x:v>
+      </x:c>
       <x:c r="C97" s="2" t="s">
-        <x:v>167</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D97" s="2" t="s"/>
     </x:row>
     <x:row r="98" spans="1:4">
       <x:c r="A98" s="2" t="s">
-        <x:v>176</x:v>
+        <x:v>179</x:v>
       </x:c>
       <x:c r="B98" s="2" t="s"/>
       <x:c r="C98" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>178</x:v>
       </x:c>
       <x:c r="D98" s="2" t="s"/>
     </x:row>
     <x:row r="99" spans="1:4">
       <x:c r="A99" s="2" t="s">
+        <x:v>180</x:v>
+      </x:c>
+      <x:c r="B99" s="2" t="s">
+        <x:v>181</x:v>
+      </x:c>
+      <x:c r="C99" s="2" t="s">
         <x:v>178</x:v>
-      </x:c>
-      <x:c r="B99" s="2" t="s">
-        <x:v>179</x:v>
-      </x:c>
-      <x:c r="C99" s="2" t="s">
-        <x:v>177</x:v>
       </x:c>
       <x:c r="D99" s="2" t="s"/>
     </x:row>
     <x:row r="100" spans="1:4">
       <x:c r="A100" s="2" t="s">
-        <x:v>180</x:v>
-      </x:c>
-      <x:c r="B100" s="2" t="s">
-        <x:v>181</x:v>
-      </x:c>
+        <x:v>182</x:v>
+      </x:c>
+      <x:c r="B100" s="2" t="s"/>
       <x:c r="C100" s="2" t="s">
-        <x:v>177</x:v>
+        <x:v>183</x:v>
       </x:c>
       <x:c r="D100" s="2" t="s"/>
     </x:row>
     <x:row r="101" spans="1:4">
       <x:c r="A101" s="2" t="s">
-        <x:v>182</x:v>
+        <x:v>184</x:v>
       </x:c>
       <x:c r="B101" s="2" t="s"/>
       <x:c r="C101" s="2" t="s">
@@ -2498,9 +2933,11 @@
     </x:row>
     <x:row r="102" spans="1:4">
       <x:c r="A102" s="2" t="s">
-        <x:v>184</x:v>
-      </x:c>
-      <x:c r="B102" s="2" t="s"/>
+        <x:v>185</x:v>
+      </x:c>
+      <x:c r="B102" s="2" t="s">
+        <x:v>186</x:v>
+      </x:c>
       <x:c r="C102" s="2" t="s">
         <x:v>183</x:v>
       </x:c>
@@ -2508,25 +2945,21 @@
     </x:row>
     <x:row r="103" spans="1:4">
       <x:c r="A103" s="2" t="s">
-        <x:v>185</x:v>
-      </x:c>
-      <x:c r="B103" s="2" t="s">
-        <x:v>186</x:v>
-      </x:c>
+        <x:v>187</x:v>
+      </x:c>
+      <x:c r="B103" s="2" t="s"/>
       <x:c r="C103" s="2" t="s">
-        <x:v>183</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D103" s="2" t="s"/>
     </x:row>
     <x:row r="104" spans="1:4">
       <x:c r="A104" s="2" t="s">
-        <x:v>187</x:v>
-      </x:c>
-      <x:c r="B104" s="2" t="s">
+        <x:v>189</x:v>
+      </x:c>
+      <x:c r="B104" s="2" t="s"/>
+      <x:c r="C104" s="2" t="s">
         <x:v>188</x:v>
-      </x:c>
-      <x:c r="C104" s="2" t="s">
-        <x:v>189</x:v>
       </x:c>
       <x:c r="D104" s="2" t="s"/>
     </x:row>
@@ -2535,32 +2968,32 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="B105" s="2" t="s">
-        <x:v>85</x:v>
+        <x:v>191</x:v>
       </x:c>
       <x:c r="C105" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>188</x:v>
       </x:c>
       <x:c r="D105" s="2" t="s"/>
     </x:row>
     <x:row r="106" spans="1:4">
       <x:c r="A106" s="2" t="s">
-        <x:v>191</x:v>
+        <x:v>192</x:v>
       </x:c>
       <x:c r="B106" s="2" t="s">
-        <x:v>192</x:v>
+        <x:v>177</x:v>
       </x:c>
       <x:c r="C106" s="2" t="s">
-        <x:v>189</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D106" s="2" t="s"/>
     </x:row>
     <x:row r="107" spans="1:4">
       <x:c r="A107" s="2" t="s">
-        <x:v>193</x:v>
+        <x:v>194</x:v>
       </x:c>
       <x:c r="B107" s="2" t="s"/>
       <x:c r="C107" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D107" s="2" t="s"/>
     </x:row>
@@ -2568,31 +3001,31 @@
       <x:c r="A108" s="2" t="s">
         <x:v>195</x:v>
       </x:c>
-      <x:c r="B108" s="2" t="s"/>
+      <x:c r="B108" s="2" t="s">
+        <x:v>196</x:v>
+      </x:c>
       <x:c r="C108" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>193</x:v>
       </x:c>
       <x:c r="D108" s="2" t="s"/>
     </x:row>
     <x:row r="109" spans="1:4">
       <x:c r="A109" s="2" t="s">
-        <x:v>196</x:v>
-      </x:c>
-      <x:c r="B109" s="2" t="s">
         <x:v>197</x:v>
       </x:c>
+      <x:c r="B109" s="2" t="s"/>
       <x:c r="C109" s="2" t="s">
-        <x:v>194</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D109" s="2" t="s"/>
     </x:row>
     <x:row r="110" spans="1:4">
       <x:c r="A110" s="2" t="s">
-        <x:v>198</x:v>
+        <x:v>199</x:v>
       </x:c>
       <x:c r="B110" s="2" t="s"/>
       <x:c r="C110" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D110" s="2" t="s"/>
     </x:row>
@@ -2600,31 +3033,31 @@
       <x:c r="A111" s="2" t="s">
         <x:v>200</x:v>
       </x:c>
-      <x:c r="B111" s="2" t="s"/>
+      <x:c r="B111" s="2" t="s">
+        <x:v>201</x:v>
+      </x:c>
       <x:c r="C111" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>198</x:v>
       </x:c>
       <x:c r="D111" s="2" t="s"/>
     </x:row>
     <x:row r="112" spans="1:4">
       <x:c r="A112" s="2" t="s">
-        <x:v>201</x:v>
-      </x:c>
-      <x:c r="B112" s="2" t="s">
         <x:v>202</x:v>
       </x:c>
+      <x:c r="B112" s="2" t="s"/>
       <x:c r="C112" s="2" t="s">
-        <x:v>199</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D112" s="2" t="s"/>
     </x:row>
     <x:row r="113" spans="1:4">
       <x:c r="A113" s="2" t="s">
-        <x:v>203</x:v>
+        <x:v>204</x:v>
       </x:c>
       <x:c r="B113" s="2" t="s"/>
       <x:c r="C113" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D113" s="2" t="s"/>
     </x:row>
@@ -2632,31 +3065,31 @@
       <x:c r="A114" s="2" t="s">
         <x:v>205</x:v>
       </x:c>
-      <x:c r="B114" s="2" t="s"/>
+      <x:c r="B114" s="2" t="s">
+        <x:v>206</x:v>
+      </x:c>
       <x:c r="C114" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>203</x:v>
       </x:c>
       <x:c r="D114" s="2" t="s"/>
     </x:row>
     <x:row r="115" spans="1:4">
       <x:c r="A115" s="2" t="s">
-        <x:v>206</x:v>
-      </x:c>
-      <x:c r="B115" s="2" t="s">
         <x:v>207</x:v>
       </x:c>
+      <x:c r="B115" s="2" t="s"/>
       <x:c r="C115" s="2" t="s">
-        <x:v>204</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D115" s="2" t="s"/>
     </x:row>
     <x:row r="116" spans="1:4">
       <x:c r="A116" s="2" t="s">
-        <x:v>208</x:v>
+        <x:v>209</x:v>
       </x:c>
       <x:c r="B116" s="2" t="s"/>
       <x:c r="C116" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D116" s="2" t="s"/>
     </x:row>
@@ -2664,43 +3097,43 @@
       <x:c r="A117" s="2" t="s">
         <x:v>210</x:v>
       </x:c>
-      <x:c r="B117" s="2" t="s"/>
+      <x:c r="B117" s="2" t="s">
+        <x:v>211</x:v>
+      </x:c>
       <x:c r="C117" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>208</x:v>
       </x:c>
       <x:c r="D117" s="2" t="s"/>
     </x:row>
     <x:row r="118" spans="1:4">
       <x:c r="A118" s="2" t="s">
-        <x:v>211</x:v>
-      </x:c>
-      <x:c r="B118" s="2" t="s">
         <x:v>212</x:v>
       </x:c>
+      <x:c r="B118" s="2" t="s"/>
       <x:c r="C118" s="2" t="s">
-        <x:v>209</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D118" s="2" t="s"/>
     </x:row>
     <x:row r="119" spans="1:4">
       <x:c r="A119" s="2" t="s">
+        <x:v>214</x:v>
+      </x:c>
+      <x:c r="B119" s="2" t="s"/>
+      <x:c r="C119" s="2" t="s">
         <x:v>213</x:v>
-      </x:c>
-      <x:c r="B119" s="2" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="C119" s="2" t="s">
-        <x:v>215</x:v>
       </x:c>
       <x:c r="D119" s="2" t="s"/>
     </x:row>
     <x:row r="120" spans="1:4">
       <x:c r="A120" s="2" t="s">
+        <x:v>215</x:v>
+      </x:c>
+      <x:c r="B120" s="2" t="s">
         <x:v>216</x:v>
       </x:c>
-      <x:c r="B120" s="2" t="s"/>
       <x:c r="C120" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>213</x:v>
       </x:c>
       <x:c r="D120" s="2" t="s"/>
     </x:row>
@@ -2712,29 +3145,29 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="C121" s="2" t="s">
-        <x:v>215</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D121" s="2" t="s"/>
     </x:row>
     <x:row r="122" spans="1:4">
       <x:c r="A122" s="2" t="s">
+        <x:v>220</x:v>
+      </x:c>
+      <x:c r="B122" s="2" t="s"/>
+      <x:c r="C122" s="2" t="s">
         <x:v>219</x:v>
-      </x:c>
-      <x:c r="B122" s="2" t="s">
-        <x:v>220</x:v>
-      </x:c>
-      <x:c r="C122" s="2" t="s">
-        <x:v>221</x:v>
       </x:c>
       <x:c r="D122" s="2" t="s"/>
     </x:row>
     <x:row r="123" spans="1:4">
       <x:c r="A123" s="2" t="s">
+        <x:v>221</x:v>
+      </x:c>
+      <x:c r="B123" s="2" t="s">
         <x:v>222</x:v>
       </x:c>
-      <x:c r="B123" s="2" t="s"/>
       <x:c r="C123" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>219</x:v>
       </x:c>
       <x:c r="D123" s="2" t="s"/>
     </x:row>
@@ -2746,29 +3179,29 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="C124" s="2" t="s">
-        <x:v>221</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D124" s="2" t="s"/>
     </x:row>
     <x:row r="125" spans="1:4">
       <x:c r="A125" s="2" t="s">
+        <x:v>226</x:v>
+      </x:c>
+      <x:c r="B125" s="2" t="s"/>
+      <x:c r="C125" s="2" t="s">
         <x:v>225</x:v>
-      </x:c>
-      <x:c r="B125" s="2" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="C125" s="2" t="s">
-        <x:v>227</x:v>
       </x:c>
       <x:c r="D125" s="2" t="s"/>
     </x:row>
     <x:row r="126" spans="1:4">
       <x:c r="A126" s="2" t="s">
+        <x:v>227</x:v>
+      </x:c>
+      <x:c r="B126" s="2" t="s">
         <x:v>228</x:v>
       </x:c>
-      <x:c r="B126" s="2" t="s"/>
       <x:c r="C126" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>225</x:v>
       </x:c>
       <x:c r="D126" s="2" t="s"/>
     </x:row>
@@ -2780,19 +3213,17 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="C127" s="2" t="s">
-        <x:v>227</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D127" s="2" t="s"/>
     </x:row>
     <x:row r="128" spans="1:4">
       <x:c r="A128" s="2" t="s">
+        <x:v>232</x:v>
+      </x:c>
+      <x:c r="B128" s="2" t="s"/>
+      <x:c r="C128" s="2" t="s">
         <x:v>231</x:v>
-      </x:c>
-      <x:c r="B128" s="2" t="s">
-        <x:v>214</x:v>
-      </x:c>
-      <x:c r="C128" s="2" t="s">
-        <x:v>232</x:v>
       </x:c>
       <x:c r="D128" s="2" t="s"/>
     </x:row>
@@ -2800,43 +3231,45 @@
       <x:c r="A129" s="2" t="s">
         <x:v>233</x:v>
       </x:c>
-      <x:c r="B129" s="2" t="s"/>
+      <x:c r="B129" s="2" t="s">
+        <x:v>234</x:v>
+      </x:c>
       <x:c r="C129" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>231</x:v>
       </x:c>
       <x:c r="D129" s="2" t="s"/>
     </x:row>
     <x:row r="130" spans="1:4">
       <x:c r="A130" s="2" t="s">
-        <x:v>234</x:v>
+        <x:v>235</x:v>
       </x:c>
       <x:c r="B130" s="2" t="s">
-        <x:v>235</x:v>
+        <x:v>218</x:v>
       </x:c>
       <x:c r="C130" s="2" t="s">
-        <x:v>232</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D130" s="2" t="s"/>
     </x:row>
     <x:row r="131" spans="1:4">
       <x:c r="A131" s="2" t="s">
+        <x:v>237</x:v>
+      </x:c>
+      <x:c r="B131" s="2" t="s"/>
+      <x:c r="C131" s="2" t="s">
         <x:v>236</x:v>
-      </x:c>
-      <x:c r="B131" s="2" t="s">
-        <x:v>237</x:v>
-      </x:c>
-      <x:c r="C131" s="2" t="s">
-        <x:v>238</x:v>
       </x:c>
       <x:c r="D131" s="2" t="s"/>
     </x:row>
     <x:row r="132" spans="1:4">
       <x:c r="A132" s="2" t="s">
+        <x:v>238</x:v>
+      </x:c>
+      <x:c r="B132" s="2" t="s">
         <x:v>239</x:v>
       </x:c>
-      <x:c r="B132" s="2" t="s"/>
       <x:c r="C132" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>236</x:v>
       </x:c>
       <x:c r="D132" s="2" t="s"/>
     </x:row>
@@ -2848,29 +3281,29 @@
         <x:v>241</x:v>
       </x:c>
       <x:c r="C133" s="2" t="s">
-        <x:v>238</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D133" s="2" t="s"/>
     </x:row>
     <x:row r="134" spans="1:4">
       <x:c r="A134" s="2" t="s">
+        <x:v>243</x:v>
+      </x:c>
+      <x:c r="B134" s="2" t="s"/>
+      <x:c r="C134" s="2" t="s">
         <x:v>242</x:v>
-      </x:c>
-      <x:c r="B134" s="2" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="C134" s="2" t="s">
-        <x:v>244</x:v>
       </x:c>
       <x:c r="D134" s="2" t="s"/>
     </x:row>
     <x:row r="135" spans="1:4">
       <x:c r="A135" s="2" t="s">
+        <x:v>244</x:v>
+      </x:c>
+      <x:c r="B135" s="2" t="s">
         <x:v>245</x:v>
       </x:c>
-      <x:c r="B135" s="2" t="s"/>
       <x:c r="C135" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="D135" s="2" t="s"/>
     </x:row>
@@ -2882,19 +3315,17 @@
         <x:v>247</x:v>
       </x:c>
       <x:c r="C136" s="2" t="s">
-        <x:v>244</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D136" s="2" t="s"/>
     </x:row>
     <x:row r="137" spans="1:4">
       <x:c r="A137" s="2" t="s">
+        <x:v>249</x:v>
+      </x:c>
+      <x:c r="B137" s="2" t="s"/>
+      <x:c r="C137" s="2" t="s">
         <x:v>248</x:v>
-      </x:c>
-      <x:c r="B137" s="2" t="s">
-        <x:v>226</x:v>
-      </x:c>
-      <x:c r="C137" s="2" t="s">
-        <x:v>249</x:v>
       </x:c>
       <x:c r="D137" s="2" t="s"/>
     </x:row>
@@ -2902,33 +3333,33 @@
       <x:c r="A138" s="2" t="s">
         <x:v>250</x:v>
       </x:c>
-      <x:c r="B138" s="2" t="s"/>
+      <x:c r="B138" s="2" t="s">
+        <x:v>251</x:v>
+      </x:c>
       <x:c r="C138" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="D138" s="2" t="s"/>
     </x:row>
     <x:row r="139" spans="1:4">
       <x:c r="A139" s="2" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="B139" s="2" t="s">
-        <x:v>252</x:v>
+        <x:v>230</x:v>
       </x:c>
       <x:c r="C139" s="2" t="s">
-        <x:v>249</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D139" s="2" t="s"/>
     </x:row>
     <x:row r="140" spans="1:4">
       <x:c r="A140" s="2" t="s">
+        <x:v>254</x:v>
+      </x:c>
+      <x:c r="B140" s="2" t="s"/>
+      <x:c r="C140" s="2" t="s">
         <x:v>253</x:v>
-      </x:c>
-      <x:c r="B140" s="2" t="s">
-        <x:v>243</x:v>
-      </x:c>
-      <x:c r="C140" s="2" t="s">
-        <x:v>254</x:v>
       </x:c>
       <x:c r="D140" s="2" t="s"/>
     </x:row>
@@ -2936,31 +3367,33 @@
       <x:c r="A141" s="2" t="s">
         <x:v>255</x:v>
       </x:c>
-      <x:c r="B141" s="2" t="s"/>
+      <x:c r="B141" s="2" t="s">
+        <x:v>256</x:v>
+      </x:c>
       <x:c r="C141" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="D141" s="2" t="s"/>
     </x:row>
     <x:row r="142" spans="1:4">
       <x:c r="A142" s="2" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="B142" s="2" t="s">
-        <x:v>257</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="C142" s="2" t="s">
-        <x:v>254</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D142" s="2" t="s"/>
     </x:row>
     <x:row r="143" spans="1:4">
       <x:c r="A143" s="2" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="B143" s="2" t="s"/>
       <x:c r="C143" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D143" s="2" t="s"/>
     </x:row>
@@ -2968,113 +3401,113 @@
       <x:c r="A144" s="2" t="s">
         <x:v>260</x:v>
       </x:c>
-      <x:c r="B144" s="2" t="s"/>
+      <x:c r="B144" s="2" t="s">
+        <x:v>261</x:v>
+      </x:c>
       <x:c r="C144" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D144" s="2" t="s"/>
     </x:row>
     <x:row r="145" spans="1:4">
       <x:c r="A145" s="2" t="s">
-        <x:v>261</x:v>
-      </x:c>
-      <x:c r="B145" s="2" t="s">
         <x:v>262</x:v>
       </x:c>
+      <x:c r="B145" s="2" t="s"/>
       <x:c r="C145" s="2" t="s">
-        <x:v>259</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D145" s="2" t="s"/>
     </x:row>
     <x:row r="146" spans="1:4">
       <x:c r="A146" s="2" t="s">
+        <x:v>264</x:v>
+      </x:c>
+      <x:c r="B146" s="2" t="s"/>
+      <x:c r="C146" s="2" t="s">
         <x:v>263</x:v>
-      </x:c>
-      <x:c r="B146" s="2" t="s">
-        <x:v>264</x:v>
-      </x:c>
-      <x:c r="C146" s="2" t="s">
-        <x:v>265</x:v>
       </x:c>
       <x:c r="D146" s="2" t="s"/>
     </x:row>
     <x:row r="147" spans="1:4">
       <x:c r="A147" s="2" t="s">
+        <x:v>265</x:v>
+      </x:c>
+      <x:c r="B147" s="2" t="s">
         <x:v>266</x:v>
       </x:c>
-      <x:c r="B147" s="2" t="s">
-        <x:v>267</x:v>
-      </x:c>
       <x:c r="C147" s="2" t="s">
-        <x:v>265</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="D147" s="2" t="s"/>
     </x:row>
     <x:row r="148" spans="1:4">
       <x:c r="A148" s="2" t="s">
+        <x:v>267</x:v>
+      </x:c>
+      <x:c r="B148" s="2" t="s">
         <x:v>268</x:v>
       </x:c>
-      <x:c r="B148" s="2" t="s">
+      <x:c r="C148" s="2" t="s">
         <x:v>269</x:v>
-      </x:c>
-      <x:c r="C148" s="2" t="s">
-        <x:v>270</x:v>
       </x:c>
       <x:c r="D148" s="2" t="s"/>
     </x:row>
     <x:row r="149" spans="1:4">
       <x:c r="A149" s="2" t="s">
-        <x:v>271</x:v>
-      </x:c>
-      <x:c r="B149" s="2" t="s">
-        <x:v>272</x:v>
-      </x:c>
+        <x:v>270</x:v>
+      </x:c>
+      <x:c r="B149" s="2" t="s"/>
       <x:c r="C149" s="2" t="s">
-        <x:v>270</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="D149" s="2" t="s"/>
     </x:row>
     <x:row r="150" spans="1:4">
       <x:c r="A150" s="2" t="s">
+        <x:v>271</x:v>
+      </x:c>
+      <x:c r="B150" s="2" t="s">
+        <x:v>272</x:v>
+      </x:c>
+      <x:c r="C150" s="2" t="s">
         <x:v>273</x:v>
-      </x:c>
-      <x:c r="B150" s="2" t="s">
-        <x:v>274</x:v>
-      </x:c>
-      <x:c r="C150" s="2" t="s">
-        <x:v>275</x:v>
       </x:c>
       <x:c r="D150" s="2" t="s"/>
     </x:row>
     <x:row r="151" spans="1:4">
       <x:c r="A151" s="2" t="s">
-        <x:v>276</x:v>
-      </x:c>
-      <x:c r="B151" s="2" t="s"/>
+        <x:v>274</x:v>
+      </x:c>
+      <x:c r="B151" s="3" t="s">
+        <x:v>275</x:v>
+      </x:c>
       <x:c r="C151" s="2" t="s">
-        <x:v>275</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="D151" s="2" t="s"/>
     </x:row>
     <x:row r="152" spans="1:4">
       <x:c r="A152" s="2" t="s">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="B152" s="2" t="s">
         <x:v>277</x:v>
       </x:c>
-      <x:c r="B152" s="2" t="s">
+      <x:c r="C152" s="2" t="s">
         <x:v>278</x:v>
-      </x:c>
-      <x:c r="C152" s="2" t="s">
-        <x:v>279</x:v>
       </x:c>
       <x:c r="D152" s="2" t="s"/>
     </x:row>
     <x:row r="153" spans="1:4">
       <x:c r="A153" s="2" t="s">
+        <x:v>279</x:v>
+      </x:c>
+      <x:c r="B153" s="2" t="s">
         <x:v>280</x:v>
       </x:c>
-      <x:c r="B153" s="2" t="s"/>
       <x:c r="C153" s="2" t="s">
-        <x:v>279</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="D153" s="2" t="s"/>
     </x:row>
@@ -3094,7 +3527,9 @@
       <x:c r="A155" s="2" t="s">
         <x:v>284</x:v>
       </x:c>
-      <x:c r="B155" s="2" t="s"/>
+      <x:c r="B155" s="2" t="s">
+        <x:v>285</x:v>
+      </x:c>
       <x:c r="C155" s="2" t="s">
         <x:v>283</x:v>
       </x:c>
@@ -3102,66 +3537,70 @@
     </x:row>
     <x:row r="156" spans="1:4">
       <x:c r="A156" s="2" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="B156" s="2" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="C156" s="2" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="D156" s="2" t="s"/>
     </x:row>
     <x:row r="157" spans="1:4">
       <x:c r="A157" s="2" t="s">
+        <x:v>289</x:v>
+      </x:c>
+      <x:c r="B157" s="2" t="s">
+        <x:v>290</x:v>
+      </x:c>
+      <x:c r="C157" s="2" t="s">
         <x:v>288</x:v>
-      </x:c>
-      <x:c r="B157" s="2" t="s"/>
-      <x:c r="C157" s="2" t="s">
-        <x:v>287</x:v>
       </x:c>
       <x:c r="D157" s="2" t="s"/>
     </x:row>
     <x:row r="158" spans="1:4">
       <x:c r="A158" s="2" t="s">
-        <x:v>289</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="B158" s="2" t="s">
-        <x:v>290</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="C158" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D158" s="2" t="s"/>
     </x:row>
     <x:row r="159" spans="1:4">
       <x:c r="A159" s="2" t="s">
-        <x:v>292</x:v>
-      </x:c>
-      <x:c r="B159" s="2" t="s"/>
+        <x:v>294</x:v>
+      </x:c>
+      <x:c r="B159" s="2" t="s">
+        <x:v>295</x:v>
+      </x:c>
       <x:c r="C159" s="2" t="s">
-        <x:v>291</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="D159" s="2" t="s"/>
     </x:row>
     <x:row r="160" spans="1:4">
       <x:c r="A160" s="2" t="s">
-        <x:v>293</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="B160" s="2" t="s">
-        <x:v>294</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="C160" s="2" t="s">
-        <x:v>295</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="D160" s="2" t="s"/>
     </x:row>
     <x:row r="161" spans="1:4">
       <x:c r="A161" s="2" t="s">
-        <x:v>296</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="B161" s="2" t="s">
-        <x:v>297</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="C161" s="2" t="s">
         <x:v>298</x:v>
@@ -3170,25 +3609,23 @@
     </x:row>
     <x:row r="162" spans="1:4">
       <x:c r="A162" s="2" t="s">
-        <x:v>299</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="B162" s="2" t="s">
-        <x:v>300</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="C162" s="2" t="s">
-        <x:v>301</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="D162" s="2" t="s"/>
     </x:row>
     <x:row r="163" spans="1:4">
       <x:c r="A163" s="2" t="s">
-        <x:v>302</x:v>
-      </x:c>
-      <x:c r="B163" s="2" t="s">
+        <x:v>304</x:v>
+      </x:c>
+      <x:c r="B163" s="2" t="s"/>
+      <x:c r="C163" s="2" t="s">
         <x:v>303</x:v>
-      </x:c>
-      <x:c r="C163" s="2" t="s">
-        <x:v>304</x:v>
       </x:c>
       <x:c r="D163" s="2" t="s"/>
     </x:row>
@@ -3208,13 +3645,851 @@
       <x:c r="A165" s="2" t="s">
         <x:v>308</x:v>
       </x:c>
-      <x:c r="B165" s="2" t="s">
+      <x:c r="B165" s="2" t="s"/>
+      <x:c r="C165" s="2" t="s">
+        <x:v>307</x:v>
+      </x:c>
+      <x:c r="D165" s="2" t="s"/>
+    </x:row>
+    <x:row r="166" spans="1:4">
+      <x:c r="A166" s="2" t="s">
         <x:v>309</x:v>
       </x:c>
-      <x:c r="C165" s="2" t="s">
+      <x:c r="B166" s="2" t="s">
         <x:v>310</x:v>
       </x:c>
-      <x:c r="D165" s="2" t="s"/>
+      <x:c r="C166" s="2" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="D166" s="2" t="s"/>
+    </x:row>
+    <x:row r="167" spans="1:4">
+      <x:c r="A167" s="2" t="s">
+        <x:v>312</x:v>
+      </x:c>
+      <x:c r="B167" s="2" t="s">
+        <x:v>313</x:v>
+      </x:c>
+      <x:c r="C167" s="2" t="s">
+        <x:v>311</x:v>
+      </x:c>
+      <x:c r="D167" s="2" t="s"/>
+    </x:row>
+    <x:row r="168" spans="1:4">
+      <x:c r="A168" s="2" t="s">
+        <x:v>314</x:v>
+      </x:c>
+      <x:c r="B168" s="2" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="C168" s="2" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="D168" s="2" t="s"/>
+    </x:row>
+    <x:row r="169" spans="1:4">
+      <x:c r="A169" s="2" t="s">
+        <x:v>317</x:v>
+      </x:c>
+      <x:c r="B169" s="2" t="s"/>
+      <x:c r="C169" s="2" t="s">
+        <x:v>316</x:v>
+      </x:c>
+      <x:c r="D169" s="2" t="s"/>
+    </x:row>
+    <x:row r="170" spans="1:4">
+      <x:c r="A170" s="2" t="s">
+        <x:v>318</x:v>
+      </x:c>
+      <x:c r="B170" s="2" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C170" s="2" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="D170" s="2" t="s"/>
+    </x:row>
+    <x:row r="171" spans="1:4">
+      <x:c r="A171" s="2" t="s">
+        <x:v>321</x:v>
+      </x:c>
+      <x:c r="B171" s="2" t="s"/>
+      <x:c r="C171" s="2" t="s">
+        <x:v>320</x:v>
+      </x:c>
+      <x:c r="D171" s="2" t="s"/>
+    </x:row>
+    <x:row r="172" spans="1:4">
+      <x:c r="A172" s="2" t="s">
+        <x:v>322</x:v>
+      </x:c>
+      <x:c r="B172" s="2" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="C172" s="2" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="D172" s="2" t="s"/>
+    </x:row>
+    <x:row r="173" spans="1:4">
+      <x:c r="A173" s="2" t="s">
+        <x:v>325</x:v>
+      </x:c>
+      <x:c r="B173" s="2" t="s"/>
+      <x:c r="C173" s="2" t="s">
+        <x:v>324</x:v>
+      </x:c>
+      <x:c r="D173" s="2" t="s"/>
+    </x:row>
+    <x:row r="174" spans="1:4">
+      <x:c r="A174" s="2" t="s">
+        <x:v>326</x:v>
+      </x:c>
+      <x:c r="B174" s="2" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C174" s="2" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="D174" s="2" t="s"/>
+    </x:row>
+    <x:row r="175" spans="1:4">
+      <x:c r="A175" s="2" t="s">
+        <x:v>329</x:v>
+      </x:c>
+      <x:c r="B175" s="2" t="s"/>
+      <x:c r="C175" s="2" t="s">
+        <x:v>328</x:v>
+      </x:c>
+      <x:c r="D175" s="2" t="s"/>
+    </x:row>
+    <x:row r="176" spans="1:4">
+      <x:c r="A176" s="2" t="s">
+        <x:v>330</x:v>
+      </x:c>
+      <x:c r="B176" s="2" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C176" s="2" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="D176" s="2" t="s"/>
+    </x:row>
+    <x:row r="177" spans="1:4">
+      <x:c r="A177" s="2" t="s">
+        <x:v>333</x:v>
+      </x:c>
+      <x:c r="B177" s="2" t="s"/>
+      <x:c r="C177" s="2" t="s">
+        <x:v>332</x:v>
+      </x:c>
+      <x:c r="D177" s="2" t="s"/>
+    </x:row>
+    <x:row r="178" spans="1:4">
+      <x:c r="A178" s="2" t="s">
+        <x:v>334</x:v>
+      </x:c>
+      <x:c r="B178" s="2" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C178" s="2" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="D178" s="2" t="s"/>
+    </x:row>
+    <x:row r="179" spans="1:4">
+      <x:c r="A179" s="2" t="s">
+        <x:v>337</x:v>
+      </x:c>
+      <x:c r="B179" s="2" t="s"/>
+      <x:c r="C179" s="2" t="s">
+        <x:v>336</x:v>
+      </x:c>
+      <x:c r="D179" s="2" t="s"/>
+    </x:row>
+    <x:row r="180" spans="1:4">
+      <x:c r="A180" s="2" t="s">
+        <x:v>338</x:v>
+      </x:c>
+      <x:c r="B180" s="2" t="s">
+        <x:v>339</x:v>
+      </x:c>
+      <x:c r="C180" s="2" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="D180" s="2" t="s"/>
+    </x:row>
+    <x:row r="181" spans="1:4">
+      <x:c r="A181" s="2" t="s">
+        <x:v>341</x:v>
+      </x:c>
+      <x:c r="B181" s="2" t="s">
+        <x:v>342</x:v>
+      </x:c>
+      <x:c r="C181" s="2" t="s">
+        <x:v>340</x:v>
+      </x:c>
+      <x:c r="D181" s="2" t="s"/>
+    </x:row>
+    <x:row r="182" spans="1:4">
+      <x:c r="A182" s="2" t="s">
+        <x:v>343</x:v>
+      </x:c>
+      <x:c r="B182" s="2" t="s">
+        <x:v>344</x:v>
+      </x:c>
+      <x:c r="C182" s="2" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="D182" s="2" t="s"/>
+    </x:row>
+    <x:row r="183" spans="1:4">
+      <x:c r="A183" s="2" t="s">
+        <x:v>346</x:v>
+      </x:c>
+      <x:c r="B183" s="2" t="s"/>
+      <x:c r="C183" s="2" t="s">
+        <x:v>345</x:v>
+      </x:c>
+      <x:c r="D183" s="2" t="s"/>
+    </x:row>
+    <x:row r="184" spans="1:4">
+      <x:c r="A184" s="2" t="s">
+        <x:v>347</x:v>
+      </x:c>
+      <x:c r="B184" s="2" t="s">
+        <x:v>348</x:v>
+      </x:c>
+      <x:c r="C184" s="2" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="D184" s="2" t="s"/>
+    </x:row>
+    <x:row r="185" spans="1:4">
+      <x:c r="A185" s="2" t="s">
+        <x:v>350</x:v>
+      </x:c>
+      <x:c r="B185" s="2" t="s"/>
+      <x:c r="C185" s="2" t="s">
+        <x:v>349</x:v>
+      </x:c>
+      <x:c r="D185" s="2" t="s"/>
+    </x:row>
+    <x:row r="186" spans="1:4">
+      <x:c r="A186" s="2" t="s">
+        <x:v>351</x:v>
+      </x:c>
+      <x:c r="B186" s="2" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C186" s="2" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="D186" s="2" t="s"/>
+    </x:row>
+    <x:row r="187" spans="1:4">
+      <x:c r="A187" s="2" t="s">
+        <x:v>354</x:v>
+      </x:c>
+      <x:c r="B187" s="2" t="s"/>
+      <x:c r="C187" s="2" t="s">
+        <x:v>353</x:v>
+      </x:c>
+      <x:c r="D187" s="2" t="s"/>
+    </x:row>
+    <x:row r="188" spans="1:4">
+      <x:c r="A188" s="2" t="s">
+        <x:v>355</x:v>
+      </x:c>
+      <x:c r="B188" s="2" t="s">
+        <x:v>356</x:v>
+      </x:c>
+      <x:c r="C188" s="2" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="D188" s="2" t="s"/>
+    </x:row>
+    <x:row r="189" spans="1:4">
+      <x:c r="A189" s="2" t="s">
+        <x:v>358</x:v>
+      </x:c>
+      <x:c r="B189" s="2" t="s"/>
+      <x:c r="C189" s="2" t="s">
+        <x:v>357</x:v>
+      </x:c>
+      <x:c r="D189" s="2" t="s"/>
+    </x:row>
+    <x:row r="190" spans="1:4">
+      <x:c r="A190" s="2" t="s">
+        <x:v>359</x:v>
+      </x:c>
+      <x:c r="B190" s="2" t="s">
+        <x:v>360</x:v>
+      </x:c>
+      <x:c r="C190" s="2" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="D190" s="2" t="s"/>
+    </x:row>
+    <x:row r="191" spans="1:4">
+      <x:c r="A191" s="2" t="s">
+        <x:v>362</x:v>
+      </x:c>
+      <x:c r="B191" s="2" t="s"/>
+      <x:c r="C191" s="2" t="s">
+        <x:v>361</x:v>
+      </x:c>
+      <x:c r="D191" s="2" t="s"/>
+    </x:row>
+    <x:row r="192" spans="1:4">
+      <x:c r="A192" s="2" t="s">
+        <x:v>363</x:v>
+      </x:c>
+      <x:c r="B192" s="2" t="s">
+        <x:v>364</x:v>
+      </x:c>
+      <x:c r="C192" s="2" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="D192" s="2" t="s"/>
+    </x:row>
+    <x:row r="193" spans="1:4">
+      <x:c r="A193" s="2" t="s">
+        <x:v>366</x:v>
+      </x:c>
+      <x:c r="B193" s="2" t="s"/>
+      <x:c r="C193" s="2" t="s">
+        <x:v>365</x:v>
+      </x:c>
+      <x:c r="D193" s="2" t="s"/>
+    </x:row>
+    <x:row r="194" spans="1:4">
+      <x:c r="A194" s="2" t="s">
+        <x:v>367</x:v>
+      </x:c>
+      <x:c r="B194" s="2" t="s">
+        <x:v>368</x:v>
+      </x:c>
+      <x:c r="C194" s="2" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="D194" s="2" t="s"/>
+    </x:row>
+    <x:row r="195" spans="1:4">
+      <x:c r="A195" s="2" t="s">
+        <x:v>370</x:v>
+      </x:c>
+      <x:c r="B195" s="2" t="s"/>
+      <x:c r="C195" s="2" t="s">
+        <x:v>369</x:v>
+      </x:c>
+      <x:c r="D195" s="2" t="s"/>
+    </x:row>
+    <x:row r="196" spans="1:4">
+      <x:c r="A196" s="2" t="s">
+        <x:v>371</x:v>
+      </x:c>
+      <x:c r="B196" s="2" t="s">
+        <x:v>372</x:v>
+      </x:c>
+      <x:c r="C196" s="2" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="D196" s="2" t="s"/>
+    </x:row>
+    <x:row r="197" spans="1:4">
+      <x:c r="A197" s="2" t="s">
+        <x:v>374</x:v>
+      </x:c>
+      <x:c r="B197" s="2" t="s"/>
+      <x:c r="C197" s="2" t="s">
+        <x:v>373</x:v>
+      </x:c>
+      <x:c r="D197" s="2" t="s"/>
+    </x:row>
+    <x:row r="198" spans="1:4">
+      <x:c r="A198" s="2" t="s">
+        <x:v>375</x:v>
+      </x:c>
+      <x:c r="B198" s="2" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C198" s="2" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="D198" s="2" t="s"/>
+    </x:row>
+    <x:row r="199" spans="1:4">
+      <x:c r="A199" s="2" t="s">
+        <x:v>378</x:v>
+      </x:c>
+      <x:c r="B199" s="2" t="s"/>
+      <x:c r="C199" s="2" t="s">
+        <x:v>377</x:v>
+      </x:c>
+      <x:c r="D199" s="2" t="s"/>
+    </x:row>
+    <x:row r="200" spans="1:4">
+      <x:c r="A200" s="2" t="s">
+        <x:v>379</x:v>
+      </x:c>
+      <x:c r="B200" s="2" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C200" s="2" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="D200" s="2" t="s"/>
+    </x:row>
+    <x:row r="201" spans="1:4">
+      <x:c r="A201" s="2" t="s">
+        <x:v>382</x:v>
+      </x:c>
+      <x:c r="B201" s="2" t="s"/>
+      <x:c r="C201" s="2" t="s">
+        <x:v>381</x:v>
+      </x:c>
+      <x:c r="D201" s="2" t="s"/>
+    </x:row>
+    <x:row r="202" spans="1:4">
+      <x:c r="A202" s="2" t="s">
+        <x:v>383</x:v>
+      </x:c>
+      <x:c r="B202" s="2" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C202" s="2" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="D202" s="2" t="s"/>
+    </x:row>
+    <x:row r="203" spans="1:4">
+      <x:c r="A203" s="2" t="s">
+        <x:v>386</x:v>
+      </x:c>
+      <x:c r="B203" s="2" t="s"/>
+      <x:c r="C203" s="2" t="s">
+        <x:v>385</x:v>
+      </x:c>
+      <x:c r="D203" s="2" t="s"/>
+    </x:row>
+    <x:row r="204" spans="1:4">
+      <x:c r="A204" s="2" t="s">
+        <x:v>387</x:v>
+      </x:c>
+      <x:c r="B204" s="2" t="s">
+        <x:v>388</x:v>
+      </x:c>
+      <x:c r="C204" s="2" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D204" s="2" t="s"/>
+    </x:row>
+    <x:row r="205" spans="1:4">
+      <x:c r="A205" s="2" t="s">
+        <x:v>390</x:v>
+      </x:c>
+      <x:c r="B205" s="2" t="s"/>
+      <x:c r="C205" s="2" t="s">
+        <x:v>389</x:v>
+      </x:c>
+      <x:c r="D205" s="2" t="s"/>
+    </x:row>
+    <x:row r="206" spans="1:4">
+      <x:c r="A206" s="2" t="s">
+        <x:v>391</x:v>
+      </x:c>
+      <x:c r="B206" s="2" t="s">
+        <x:v>392</x:v>
+      </x:c>
+      <x:c r="C206" s="2" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="D206" s="2" t="s"/>
+    </x:row>
+    <x:row r="207" spans="1:4">
+      <x:c r="A207" s="2" t="s">
+        <x:v>394</x:v>
+      </x:c>
+      <x:c r="B207" s="2" t="s"/>
+      <x:c r="C207" s="2" t="s">
+        <x:v>393</x:v>
+      </x:c>
+      <x:c r="D207" s="2" t="s"/>
+    </x:row>
+    <x:row r="208" spans="1:4">
+      <x:c r="A208" s="2" t="s">
+        <x:v>395</x:v>
+      </x:c>
+      <x:c r="B208" s="2" t="s">
+        <x:v>380</x:v>
+      </x:c>
+      <x:c r="C208" s="2" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="D208" s="2" t="s"/>
+    </x:row>
+    <x:row r="209" spans="1:4">
+      <x:c r="A209" s="2" t="s">
+        <x:v>397</x:v>
+      </x:c>
+      <x:c r="B209" s="2" t="s"/>
+      <x:c r="C209" s="2" t="s">
+        <x:v>396</x:v>
+      </x:c>
+      <x:c r="D209" s="2" t="s"/>
+    </x:row>
+    <x:row r="210" spans="1:4">
+      <x:c r="A210" s="2" t="s">
+        <x:v>398</x:v>
+      </x:c>
+      <x:c r="B210" s="2" t="s">
+        <x:v>319</x:v>
+      </x:c>
+      <x:c r="C210" s="2" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="D210" s="2" t="s"/>
+    </x:row>
+    <x:row r="211" spans="1:4">
+      <x:c r="A211" s="2" t="s">
+        <x:v>400</x:v>
+      </x:c>
+      <x:c r="B211" s="2" t="s"/>
+      <x:c r="C211" s="2" t="s">
+        <x:v>399</x:v>
+      </x:c>
+      <x:c r="D211" s="2" t="s"/>
+    </x:row>
+    <x:row r="212" spans="1:4">
+      <x:c r="A212" s="2" t="s">
+        <x:v>401</x:v>
+      </x:c>
+      <x:c r="B212" s="2" t="s">
+        <x:v>335</x:v>
+      </x:c>
+      <x:c r="C212" s="2" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="D212" s="2" t="s"/>
+    </x:row>
+    <x:row r="213" spans="1:4">
+      <x:c r="A213" s="2" t="s">
+        <x:v>403</x:v>
+      </x:c>
+      <x:c r="B213" s="2" t="s"/>
+      <x:c r="C213" s="2" t="s">
+        <x:v>402</x:v>
+      </x:c>
+      <x:c r="D213" s="2" t="s"/>
+    </x:row>
+    <x:row r="214" spans="1:4">
+      <x:c r="A214" s="2" t="s">
+        <x:v>404</x:v>
+      </x:c>
+      <x:c r="B214" s="2" t="s">
+        <x:v>327</x:v>
+      </x:c>
+      <x:c r="C214" s="2" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="D214" s="2" t="s"/>
+    </x:row>
+    <x:row r="215" spans="1:4">
+      <x:c r="A215" s="2" t="s">
+        <x:v>406</x:v>
+      </x:c>
+      <x:c r="B215" s="2" t="s"/>
+      <x:c r="C215" s="2" t="s">
+        <x:v>405</x:v>
+      </x:c>
+      <x:c r="D215" s="2" t="s"/>
+    </x:row>
+    <x:row r="216" spans="1:4">
+      <x:c r="A216" s="2" t="s">
+        <x:v>407</x:v>
+      </x:c>
+      <x:c r="B216" s="2" t="s">
+        <x:v>331</x:v>
+      </x:c>
+      <x:c r="C216" s="2" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="D216" s="2" t="s"/>
+    </x:row>
+    <x:row r="217" spans="1:4">
+      <x:c r="A217" s="2" t="s">
+        <x:v>409</x:v>
+      </x:c>
+      <x:c r="B217" s="2" t="s"/>
+      <x:c r="C217" s="2" t="s">
+        <x:v>408</x:v>
+      </x:c>
+      <x:c r="D217" s="2" t="s"/>
+    </x:row>
+    <x:row r="218" spans="1:4">
+      <x:c r="A218" s="2" t="s">
+        <x:v>410</x:v>
+      </x:c>
+      <x:c r="B218" s="2" t="s">
+        <x:v>315</x:v>
+      </x:c>
+      <x:c r="C218" s="2" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="D218" s="2" t="s"/>
+    </x:row>
+    <x:row r="219" spans="1:4">
+      <x:c r="A219" s="2" t="s">
+        <x:v>412</x:v>
+      </x:c>
+      <x:c r="B219" s="2" t="s"/>
+      <x:c r="C219" s="2" t="s">
+        <x:v>411</x:v>
+      </x:c>
+      <x:c r="D219" s="2" t="s"/>
+    </x:row>
+    <x:row r="220" spans="1:4">
+      <x:c r="A220" s="2" t="s">
+        <x:v>413</x:v>
+      </x:c>
+      <x:c r="B220" s="2" t="s">
+        <x:v>414</x:v>
+      </x:c>
+      <x:c r="C220" s="2" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="D220" s="2" t="s"/>
+    </x:row>
+    <x:row r="221" spans="1:4">
+      <x:c r="A221" s="2" t="s">
+        <x:v>416</x:v>
+      </x:c>
+      <x:c r="B221" s="2" t="s"/>
+      <x:c r="C221" s="2" t="s">
+        <x:v>415</x:v>
+      </x:c>
+      <x:c r="D221" s="2" t="s"/>
+    </x:row>
+    <x:row r="222" spans="1:4">
+      <x:c r="A222" s="2" t="s">
+        <x:v>417</x:v>
+      </x:c>
+      <x:c r="B222" s="2" t="s">
+        <x:v>323</x:v>
+      </x:c>
+      <x:c r="C222" s="2" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="D222" s="2" t="s"/>
+    </x:row>
+    <x:row r="223" spans="1:4">
+      <x:c r="A223" s="2" t="s">
+        <x:v>419</x:v>
+      </x:c>
+      <x:c r="B223" s="2" t="s"/>
+      <x:c r="C223" s="2" t="s">
+        <x:v>418</x:v>
+      </x:c>
+      <x:c r="D223" s="2" t="s"/>
+    </x:row>
+    <x:row r="224" spans="1:4">
+      <x:c r="A224" s="2" t="s">
+        <x:v>420</x:v>
+      </x:c>
+      <x:c r="B224" s="2" t="s">
+        <x:v>421</x:v>
+      </x:c>
+      <x:c r="C224" s="2" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="D224" s="2" t="s"/>
+    </x:row>
+    <x:row r="225" spans="1:4">
+      <x:c r="A225" s="2" t="s">
+        <x:v>423</x:v>
+      </x:c>
+      <x:c r="B225" s="2" t="s"/>
+      <x:c r="C225" s="2" t="s">
+        <x:v>422</x:v>
+      </x:c>
+      <x:c r="D225" s="2" t="s"/>
+    </x:row>
+    <x:row r="226" spans="1:4">
+      <x:c r="A226" s="2" t="s">
+        <x:v>424</x:v>
+      </x:c>
+      <x:c r="B226" s="2" t="s">
+        <x:v>376</x:v>
+      </x:c>
+      <x:c r="C226" s="2" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="D226" s="2" t="s"/>
+    </x:row>
+    <x:row r="227" spans="1:4">
+      <x:c r="A227" s="2" t="s">
+        <x:v>426</x:v>
+      </x:c>
+      <x:c r="B227" s="2" t="s"/>
+      <x:c r="C227" s="2" t="s">
+        <x:v>425</x:v>
+      </x:c>
+      <x:c r="D227" s="2" t="s"/>
+    </x:row>
+    <x:row r="228" spans="1:4">
+      <x:c r="A228" s="2" t="s">
+        <x:v>427</x:v>
+      </x:c>
+      <x:c r="B228" s="2" t="s">
+        <x:v>384</x:v>
+      </x:c>
+      <x:c r="C228" s="2" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="D228" s="2" t="s"/>
+    </x:row>
+    <x:row r="229" spans="1:4">
+      <x:c r="A229" s="2" t="s">
+        <x:v>429</x:v>
+      </x:c>
+      <x:c r="B229" s="2" t="s"/>
+      <x:c r="C229" s="2" t="s">
+        <x:v>428</x:v>
+      </x:c>
+      <x:c r="D229" s="2" t="s"/>
+    </x:row>
+    <x:row r="230" spans="1:4">
+      <x:c r="A230" s="2" t="s">
+        <x:v>430</x:v>
+      </x:c>
+      <x:c r="B230" s="2" t="s">
+        <x:v>352</x:v>
+      </x:c>
+      <x:c r="C230" s="2" t="s">
+        <x:v>431</x:v>
+      </x:c>
+      <x:c r="D230" s="2" t="s"/>
+    </x:row>
+    <x:row r="231" spans="1:4">
+      <x:c r="A231" s="2" t="s">
+        <x:v>432</x:v>
+      </x:c>
+      <x:c r="B231" s="2" t="s">
+        <x:v>433</x:v>
+      </x:c>
+      <x:c r="C231" s="2" t="s">
+        <x:v>434</x:v>
+      </x:c>
+      <x:c r="D231" s="2" t="s"/>
+    </x:row>
+    <x:row r="232" spans="1:4">
+      <x:c r="A232" s="2" t="s">
+        <x:v>435</x:v>
+      </x:c>
+      <x:c r="B232" s="2" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C232" s="2" t="s">
+        <x:v>437</x:v>
+      </x:c>
+      <x:c r="D232" s="2" t="s"/>
+    </x:row>
+    <x:row r="233" spans="1:4">
+      <x:c r="A233" s="2" t="s">
+        <x:v>438</x:v>
+      </x:c>
+      <x:c r="B233" s="2" t="s">
+        <x:v>439</x:v>
+      </x:c>
+      <x:c r="C233" s="2" t="s">
+        <x:v>440</x:v>
+      </x:c>
+      <x:c r="D233" s="2" t="s"/>
+    </x:row>
+    <x:row r="234" spans="1:4">
+      <x:c r="A234" s="2" t="s">
+        <x:v>441</x:v>
+      </x:c>
+      <x:c r="B234" s="2" t="s">
+        <x:v>442</x:v>
+      </x:c>
+      <x:c r="C234" s="2" t="s">
+        <x:v>443</x:v>
+      </x:c>
+      <x:c r="D234" s="2" t="s"/>
+    </x:row>
+    <x:row r="235" spans="1:4">
+      <x:c r="A235" s="2" t="s">
+        <x:v>444</x:v>
+      </x:c>
+      <x:c r="B235" s="2" t="s">
+        <x:v>445</x:v>
+      </x:c>
+      <x:c r="C235" s="2" t="s">
+        <x:v>446</x:v>
+      </x:c>
+      <x:c r="D235" s="2" t="s"/>
+    </x:row>
+    <x:row r="236" spans="1:4">
+      <x:c r="A236" s="2" t="s">
+        <x:v>447</x:v>
+      </x:c>
+      <x:c r="B236" s="2" t="s">
+        <x:v>448</x:v>
+      </x:c>
+      <x:c r="C236" s="2" t="s">
+        <x:v>449</x:v>
+      </x:c>
+      <x:c r="D236" s="2" t="s"/>
+    </x:row>
+    <x:row r="237" spans="1:4">
+      <x:c r="A237" s="2" t="s">
+        <x:v>450</x:v>
+      </x:c>
+      <x:c r="B237" s="2" t="s">
+        <x:v>451</x:v>
+      </x:c>
+      <x:c r="C237" s="2" t="s">
+        <x:v>452</x:v>
+      </x:c>
+      <x:c r="D237" s="2" t="s"/>
+    </x:row>
+    <x:row r="238" spans="1:4">
+      <x:c r="A238" s="2" t="s">
+        <x:v>453</x:v>
+      </x:c>
+      <x:c r="B238" s="2" t="s">
+        <x:v>454</x:v>
+      </x:c>
+      <x:c r="C238" s="2" t="s">
+        <x:v>455</x:v>
+      </x:c>
+      <x:c r="D238" s="2" t="s"/>
+    </x:row>
+    <x:row r="239" spans="1:4">
+      <x:c r="A239" s="2" t="s">
+        <x:v>456</x:v>
+      </x:c>
+      <x:c r="B239" s="2" t="s">
+        <x:v>457</x:v>
+      </x:c>
+      <x:c r="C239" s="2" t="s">
+        <x:v>458</x:v>
+      </x:c>
+      <x:c r="D239" s="2" t="s"/>
+    </x:row>
+    <x:row r="240" spans="1:4">
+      <x:c r="A240" s="2" t="s">
+        <x:v>459</x:v>
+      </x:c>
+      <x:c r="B240" s="2" t="s">
+        <x:v>436</x:v>
+      </x:c>
+      <x:c r="C240" s="2" t="s">
+        <x:v>460</x:v>
+      </x:c>
+      <x:c r="D240" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
